--- a/01.Main/Resource/Excel/FormWork.xlsx
+++ b/01.Main/Resource/Excel/FormWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShDoc\Projects\VS\IsSoft\SEC\LedChecker\01.Main\Resource\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA339C6-CC4B-4EF8-B32A-886D1F884C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7A7EA-2896-4BFA-B86B-C5D30019D207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57180" yWindow="4335" windowWidth="28800" windowHeight="15885" xr2:uid="{F5700C55-F471-4AE2-85E4-C63A8F17DB33}"/>
+    <workbookView xWindow="50280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{F5700C55-F471-4AE2-85E4-C63A8F17DB33}"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t xml:space="preserve"> Item Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Bias-CH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Procedure</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -74,6 +70,14 @@
   </si>
   <si>
     <t xml:space="preserve"> Repoort Procedure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Item Code(Normal)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Item Code(Sampling)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,9 +380,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,728 +736,1428 @@
       <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="702" width="17.625" style="6"/>
-    <col min="703" max="16384" width="17.625" style="1"/>
+    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="2" max="702" width="17.875" style="6"/>
+    <col min="703" max="16384" width="17.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:702" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:702" s="21" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CB1" s="20"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="20"/>
+      <c r="CE1" s="20"/>
+      <c r="CF1" s="20"/>
+      <c r="CG1" s="20"/>
+      <c r="CH1" s="20"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="20"/>
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="20"/>
+      <c r="CN1" s="20"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="20"/>
+      <c r="CQ1" s="20"/>
+      <c r="CR1" s="20"/>
+      <c r="CS1" s="20"/>
+      <c r="CT1" s="20"/>
+      <c r="CU1" s="20"/>
+      <c r="CV1" s="20"/>
+      <c r="CW1" s="20"/>
+      <c r="CX1" s="20"/>
+      <c r="CY1" s="20"/>
+      <c r="CZ1" s="20"/>
+      <c r="DA1" s="20"/>
+      <c r="DB1" s="20"/>
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="20"/>
+      <c r="DR1" s="20"/>
+      <c r="DS1" s="20"/>
+      <c r="DT1" s="20"/>
+      <c r="DU1" s="20"/>
+      <c r="DV1" s="20"/>
+      <c r="DW1" s="20"/>
+      <c r="DX1" s="20"/>
+      <c r="DY1" s="20"/>
+      <c r="DZ1" s="20"/>
+      <c r="EA1" s="20"/>
+      <c r="EB1" s="20"/>
+      <c r="EC1" s="20"/>
+      <c r="ED1" s="20"/>
+      <c r="EE1" s="20"/>
+      <c r="EF1" s="20"/>
+      <c r="EG1" s="20"/>
+      <c r="EH1" s="20"/>
+      <c r="EI1" s="20"/>
+      <c r="EJ1" s="20"/>
+      <c r="EK1" s="20"/>
+      <c r="EL1" s="20"/>
+      <c r="EM1" s="20"/>
+      <c r="EN1" s="20"/>
+      <c r="EO1" s="20"/>
+      <c r="EP1" s="20"/>
+      <c r="EQ1" s="20"/>
+      <c r="ER1" s="20"/>
+      <c r="ES1" s="20"/>
+      <c r="ET1" s="20"/>
+      <c r="EU1" s="20"/>
+      <c r="EV1" s="20"/>
+      <c r="EW1" s="20"/>
+      <c r="EX1" s="20"/>
+      <c r="EY1" s="20"/>
+      <c r="EZ1" s="20"/>
+      <c r="FA1" s="20"/>
+      <c r="FB1" s="20"/>
+      <c r="FC1" s="20"/>
+      <c r="FD1" s="20"/>
+      <c r="FE1" s="20"/>
+      <c r="FF1" s="20"/>
+      <c r="FG1" s="20"/>
+      <c r="FH1" s="20"/>
+      <c r="FI1" s="20"/>
+      <c r="FJ1" s="20"/>
+      <c r="FK1" s="20"/>
+      <c r="FL1" s="20"/>
+      <c r="FM1" s="20"/>
+      <c r="FN1" s="20"/>
+      <c r="FO1" s="20"/>
+      <c r="FP1" s="20"/>
+      <c r="FQ1" s="20"/>
+      <c r="FR1" s="20"/>
+      <c r="FS1" s="20"/>
+      <c r="FT1" s="20"/>
+      <c r="FU1" s="20"/>
+      <c r="FV1" s="20"/>
+      <c r="FW1" s="20"/>
+      <c r="FX1" s="20"/>
+      <c r="FY1" s="20"/>
+      <c r="FZ1" s="20"/>
+      <c r="GA1" s="20"/>
+      <c r="GB1" s="20"/>
+      <c r="GC1" s="20"/>
+      <c r="GD1" s="20"/>
+      <c r="GE1" s="20"/>
+      <c r="GF1" s="20"/>
+      <c r="GG1" s="20"/>
+      <c r="GH1" s="20"/>
+      <c r="GI1" s="20"/>
+      <c r="GJ1" s="20"/>
+      <c r="GK1" s="20"/>
+      <c r="GL1" s="20"/>
+      <c r="GM1" s="20"/>
+      <c r="GN1" s="20"/>
+      <c r="GO1" s="20"/>
+      <c r="GP1" s="20"/>
+      <c r="GQ1" s="20"/>
+      <c r="GR1" s="20"/>
+      <c r="GS1" s="20"/>
+      <c r="GT1" s="20"/>
+      <c r="GU1" s="20"/>
+      <c r="GV1" s="20"/>
+      <c r="GW1" s="20"/>
+      <c r="GX1" s="20"/>
+      <c r="GY1" s="20"/>
+      <c r="GZ1" s="20"/>
+      <c r="HA1" s="20"/>
+      <c r="HB1" s="20"/>
+      <c r="HC1" s="20"/>
+      <c r="HD1" s="20"/>
+      <c r="HE1" s="20"/>
+      <c r="HF1" s="20"/>
+      <c r="HG1" s="20"/>
+      <c r="HH1" s="20"/>
+      <c r="HI1" s="20"/>
+      <c r="HJ1" s="20"/>
+      <c r="HK1" s="20"/>
+      <c r="HL1" s="20"/>
+      <c r="HM1" s="20"/>
+      <c r="HN1" s="20"/>
+      <c r="HO1" s="20"/>
+      <c r="HP1" s="20"/>
+      <c r="HQ1" s="20"/>
+      <c r="HR1" s="20"/>
+      <c r="HS1" s="20"/>
+      <c r="HT1" s="20"/>
+      <c r="HU1" s="20"/>
+      <c r="HV1" s="20"/>
+      <c r="HW1" s="20"/>
+      <c r="HX1" s="20"/>
+      <c r="HY1" s="20"/>
+      <c r="HZ1" s="20"/>
+      <c r="IA1" s="20"/>
+      <c r="IB1" s="20"/>
+      <c r="IC1" s="20"/>
+      <c r="ID1" s="20"/>
+      <c r="IE1" s="20"/>
+      <c r="IF1" s="20"/>
+      <c r="IG1" s="20"/>
+      <c r="IH1" s="20"/>
+      <c r="II1" s="20"/>
+      <c r="IJ1" s="20"/>
+      <c r="IK1" s="20"/>
+      <c r="IL1" s="20"/>
+      <c r="IM1" s="20"/>
+      <c r="IN1" s="20"/>
+      <c r="IO1" s="20"/>
+      <c r="IP1" s="20"/>
+      <c r="IQ1" s="20"/>
+      <c r="IR1" s="20"/>
+      <c r="IS1" s="20"/>
+      <c r="IT1" s="20"/>
+      <c r="IU1" s="20"/>
+      <c r="IV1" s="20"/>
+      <c r="IW1" s="20"/>
+      <c r="IX1" s="20"/>
+      <c r="IY1" s="20"/>
+      <c r="IZ1" s="20"/>
+      <c r="JA1" s="20"/>
+      <c r="JB1" s="20"/>
+      <c r="JC1" s="20"/>
+      <c r="JD1" s="20"/>
+      <c r="JE1" s="20"/>
+      <c r="JF1" s="20"/>
+      <c r="JG1" s="20"/>
+      <c r="JH1" s="20"/>
+      <c r="JI1" s="20"/>
+      <c r="JJ1" s="20"/>
+      <c r="JK1" s="20"/>
+      <c r="JL1" s="20"/>
+      <c r="JM1" s="20"/>
+      <c r="JN1" s="20"/>
+      <c r="JO1" s="20"/>
+      <c r="JP1" s="20"/>
+      <c r="JQ1" s="20"/>
+      <c r="JR1" s="20"/>
+      <c r="JS1" s="20"/>
+      <c r="JT1" s="20"/>
+      <c r="JU1" s="20"/>
+      <c r="JV1" s="20"/>
+      <c r="JW1" s="20"/>
+      <c r="JX1" s="20"/>
+      <c r="JY1" s="20"/>
+      <c r="JZ1" s="20"/>
+      <c r="KA1" s="20"/>
+      <c r="KB1" s="20"/>
+      <c r="KC1" s="20"/>
+      <c r="KD1" s="20"/>
+      <c r="KE1" s="20"/>
+      <c r="KF1" s="20"/>
+      <c r="KG1" s="20"/>
+      <c r="KH1" s="20"/>
+      <c r="KI1" s="20"/>
+      <c r="KJ1" s="20"/>
+      <c r="KK1" s="20"/>
+      <c r="KL1" s="20"/>
+      <c r="KM1" s="20"/>
+      <c r="KN1" s="20"/>
+      <c r="KO1" s="20"/>
+      <c r="KP1" s="20"/>
+      <c r="KQ1" s="20"/>
+      <c r="KR1" s="20"/>
+      <c r="KS1" s="20"/>
+      <c r="KT1" s="20"/>
+      <c r="KU1" s="20"/>
+      <c r="KV1" s="20"/>
+      <c r="KW1" s="20"/>
+      <c r="KX1" s="20"/>
+      <c r="KY1" s="20"/>
+      <c r="KZ1" s="20"/>
+      <c r="LA1" s="20"/>
+      <c r="LB1" s="20"/>
+      <c r="LC1" s="20"/>
+      <c r="LD1" s="20"/>
+      <c r="LE1" s="20"/>
+      <c r="LF1" s="20"/>
+      <c r="LG1" s="20"/>
+      <c r="LH1" s="20"/>
+      <c r="LI1" s="20"/>
+      <c r="LJ1" s="20"/>
+      <c r="LK1" s="20"/>
+      <c r="LL1" s="20"/>
+      <c r="LM1" s="20"/>
+      <c r="LN1" s="20"/>
+      <c r="LO1" s="20"/>
+      <c r="LP1" s="20"/>
+      <c r="LQ1" s="20"/>
+      <c r="LR1" s="20"/>
+      <c r="LS1" s="20"/>
+      <c r="LT1" s="20"/>
+      <c r="LU1" s="20"/>
+      <c r="LV1" s="20"/>
+      <c r="LW1" s="20"/>
+      <c r="LX1" s="20"/>
+      <c r="LY1" s="20"/>
+      <c r="LZ1" s="20"/>
+      <c r="MA1" s="20"/>
+      <c r="MB1" s="20"/>
+      <c r="MC1" s="20"/>
+      <c r="MD1" s="20"/>
+      <c r="ME1" s="20"/>
+      <c r="MF1" s="20"/>
+      <c r="MG1" s="20"/>
+      <c r="MH1" s="20"/>
+      <c r="MI1" s="20"/>
+      <c r="MJ1" s="20"/>
+      <c r="MK1" s="20"/>
+      <c r="ML1" s="20"/>
+      <c r="MM1" s="20"/>
+      <c r="MN1" s="20"/>
+      <c r="MO1" s="20"/>
+      <c r="MP1" s="20"/>
+      <c r="MQ1" s="20"/>
+      <c r="MR1" s="20"/>
+      <c r="MS1" s="20"/>
+      <c r="MT1" s="20"/>
+      <c r="MU1" s="20"/>
+      <c r="MV1" s="20"/>
+      <c r="MW1" s="20"/>
+      <c r="MX1" s="20"/>
+      <c r="MY1" s="20"/>
+      <c r="MZ1" s="20"/>
+      <c r="NA1" s="20"/>
+      <c r="NB1" s="20"/>
+      <c r="NC1" s="20"/>
+      <c r="ND1" s="20"/>
+      <c r="NE1" s="20"/>
+      <c r="NF1" s="20"/>
+      <c r="NG1" s="20"/>
+      <c r="NH1" s="20"/>
+      <c r="NI1" s="20"/>
+      <c r="NJ1" s="20"/>
+      <c r="NK1" s="20"/>
+      <c r="NL1" s="20"/>
+      <c r="NM1" s="20"/>
+      <c r="NN1" s="20"/>
+      <c r="NO1" s="20"/>
+      <c r="NP1" s="20"/>
+      <c r="NQ1" s="20"/>
+      <c r="NR1" s="20"/>
+      <c r="NS1" s="20"/>
+      <c r="NT1" s="20"/>
+      <c r="NU1" s="20"/>
+      <c r="NV1" s="20"/>
+      <c r="NW1" s="20"/>
+      <c r="NX1" s="20"/>
+      <c r="NY1" s="20"/>
+      <c r="NZ1" s="20"/>
+      <c r="OA1" s="20"/>
+      <c r="OB1" s="20"/>
+      <c r="OC1" s="20"/>
+      <c r="OD1" s="20"/>
+      <c r="OE1" s="20"/>
+      <c r="OF1" s="20"/>
+      <c r="OG1" s="20"/>
+      <c r="OH1" s="20"/>
+      <c r="OI1" s="20"/>
+      <c r="OJ1" s="20"/>
+      <c r="OK1" s="20"/>
+      <c r="OL1" s="20"/>
+      <c r="OM1" s="20"/>
+      <c r="ON1" s="20"/>
+      <c r="OO1" s="20"/>
+      <c r="OP1" s="20"/>
+      <c r="OQ1" s="20"/>
+      <c r="OR1" s="20"/>
+      <c r="OS1" s="20"/>
+      <c r="OT1" s="20"/>
+      <c r="OU1" s="20"/>
+      <c r="OV1" s="20"/>
+      <c r="OW1" s="20"/>
+      <c r="OX1" s="20"/>
+      <c r="OY1" s="20"/>
+      <c r="OZ1" s="20"/>
+      <c r="PA1" s="20"/>
+      <c r="PB1" s="20"/>
+      <c r="PC1" s="20"/>
+      <c r="PD1" s="20"/>
+      <c r="PE1" s="20"/>
+      <c r="PF1" s="20"/>
+      <c r="PG1" s="20"/>
+      <c r="PH1" s="20"/>
+      <c r="PI1" s="20"/>
+      <c r="PJ1" s="20"/>
+      <c r="PK1" s="20"/>
+      <c r="PL1" s="20"/>
+      <c r="PM1" s="20"/>
+      <c r="PN1" s="20"/>
+      <c r="PO1" s="20"/>
+      <c r="PP1" s="20"/>
+      <c r="PQ1" s="20"/>
+      <c r="PR1" s="20"/>
+      <c r="PS1" s="20"/>
+      <c r="PT1" s="20"/>
+      <c r="PU1" s="20"/>
+      <c r="PV1" s="20"/>
+      <c r="PW1" s="20"/>
+      <c r="PX1" s="20"/>
+      <c r="PY1" s="20"/>
+      <c r="PZ1" s="20"/>
+      <c r="QA1" s="20"/>
+      <c r="QB1" s="20"/>
+      <c r="QC1" s="20"/>
+      <c r="QD1" s="20"/>
+      <c r="QE1" s="20"/>
+      <c r="QF1" s="20"/>
+      <c r="QG1" s="20"/>
+      <c r="QH1" s="20"/>
+      <c r="QI1" s="20"/>
+      <c r="QJ1" s="20"/>
+      <c r="QK1" s="20"/>
+      <c r="QL1" s="20"/>
+      <c r="QM1" s="20"/>
+      <c r="QN1" s="20"/>
+      <c r="QO1" s="20"/>
+      <c r="QP1" s="20"/>
+      <c r="QQ1" s="20"/>
+      <c r="QR1" s="20"/>
+      <c r="QS1" s="20"/>
+      <c r="QT1" s="20"/>
+      <c r="QU1" s="20"/>
+      <c r="QV1" s="20"/>
+      <c r="QW1" s="20"/>
+      <c r="QX1" s="20"/>
+      <c r="QY1" s="20"/>
+      <c r="QZ1" s="20"/>
+      <c r="RA1" s="20"/>
+      <c r="RB1" s="20"/>
+      <c r="RC1" s="20"/>
+      <c r="RD1" s="20"/>
+      <c r="RE1" s="20"/>
+      <c r="RF1" s="20"/>
+      <c r="RG1" s="20"/>
+      <c r="RH1" s="20"/>
+      <c r="RI1" s="20"/>
+      <c r="RJ1" s="20"/>
+      <c r="RK1" s="20"/>
+      <c r="RL1" s="20"/>
+      <c r="RM1" s="20"/>
+      <c r="RN1" s="20"/>
+      <c r="RO1" s="20"/>
+      <c r="RP1" s="20"/>
+      <c r="RQ1" s="20"/>
+      <c r="RR1" s="20"/>
+      <c r="RS1" s="20"/>
+      <c r="RT1" s="20"/>
+      <c r="RU1" s="20"/>
+      <c r="RV1" s="20"/>
+      <c r="RW1" s="20"/>
+      <c r="RX1" s="20"/>
+      <c r="RY1" s="20"/>
+      <c r="RZ1" s="20"/>
+      <c r="SA1" s="20"/>
+      <c r="SB1" s="20"/>
+      <c r="SC1" s="20"/>
+      <c r="SD1" s="20"/>
+      <c r="SE1" s="20"/>
+      <c r="SF1" s="20"/>
+      <c r="SG1" s="20"/>
+      <c r="SH1" s="20"/>
+      <c r="SI1" s="20"/>
+      <c r="SJ1" s="20"/>
+      <c r="SK1" s="20"/>
+      <c r="SL1" s="20"/>
+      <c r="SM1" s="20"/>
+      <c r="SN1" s="20"/>
+      <c r="SO1" s="20"/>
+      <c r="SP1" s="20"/>
+      <c r="SQ1" s="20"/>
+      <c r="SR1" s="20"/>
+      <c r="SS1" s="20"/>
+      <c r="ST1" s="20"/>
+      <c r="SU1" s="20"/>
+      <c r="SV1" s="20"/>
+      <c r="SW1" s="20"/>
+      <c r="SX1" s="20"/>
+      <c r="SY1" s="20"/>
+      <c r="SZ1" s="20"/>
+      <c r="TA1" s="20"/>
+      <c r="TB1" s="20"/>
+      <c r="TC1" s="20"/>
+      <c r="TD1" s="20"/>
+      <c r="TE1" s="20"/>
+      <c r="TF1" s="20"/>
+      <c r="TG1" s="20"/>
+      <c r="TH1" s="20"/>
+      <c r="TI1" s="20"/>
+      <c r="TJ1" s="20"/>
+      <c r="TK1" s="20"/>
+      <c r="TL1" s="20"/>
+      <c r="TM1" s="20"/>
+      <c r="TN1" s="20"/>
+      <c r="TO1" s="20"/>
+      <c r="TP1" s="20"/>
+      <c r="TQ1" s="20"/>
+      <c r="TR1" s="20"/>
+      <c r="TS1" s="20"/>
+      <c r="TT1" s="20"/>
+      <c r="TU1" s="20"/>
+      <c r="TV1" s="20"/>
+      <c r="TW1" s="20"/>
+      <c r="TX1" s="20"/>
+      <c r="TY1" s="20"/>
+      <c r="TZ1" s="20"/>
+      <c r="UA1" s="20"/>
+      <c r="UB1" s="20"/>
+      <c r="UC1" s="20"/>
+      <c r="UD1" s="20"/>
+      <c r="UE1" s="20"/>
+      <c r="UF1" s="20"/>
+      <c r="UG1" s="20"/>
+      <c r="UH1" s="20"/>
+      <c r="UI1" s="20"/>
+      <c r="UJ1" s="20"/>
+      <c r="UK1" s="20"/>
+      <c r="UL1" s="20"/>
+      <c r="UM1" s="20"/>
+      <c r="UN1" s="20"/>
+      <c r="UO1" s="20"/>
+      <c r="UP1" s="20"/>
+      <c r="UQ1" s="20"/>
+      <c r="UR1" s="20"/>
+      <c r="US1" s="20"/>
+      <c r="UT1" s="20"/>
+      <c r="UU1" s="20"/>
+      <c r="UV1" s="20"/>
+      <c r="UW1" s="20"/>
+      <c r="UX1" s="20"/>
+      <c r="UY1" s="20"/>
+      <c r="UZ1" s="20"/>
+      <c r="VA1" s="20"/>
+      <c r="VB1" s="20"/>
+      <c r="VC1" s="20"/>
+      <c r="VD1" s="20"/>
+      <c r="VE1" s="20"/>
+      <c r="VF1" s="20"/>
+      <c r="VG1" s="20"/>
+      <c r="VH1" s="20"/>
+      <c r="VI1" s="20"/>
+      <c r="VJ1" s="20"/>
+      <c r="VK1" s="20"/>
+      <c r="VL1" s="20"/>
+      <c r="VM1" s="20"/>
+      <c r="VN1" s="20"/>
+      <c r="VO1" s="20"/>
+      <c r="VP1" s="20"/>
+      <c r="VQ1" s="20"/>
+      <c r="VR1" s="20"/>
+      <c r="VS1" s="20"/>
+      <c r="VT1" s="20"/>
+      <c r="VU1" s="20"/>
+      <c r="VV1" s="20"/>
+      <c r="VW1" s="20"/>
+      <c r="VX1" s="20"/>
+      <c r="VY1" s="20"/>
+      <c r="VZ1" s="20"/>
+      <c r="WA1" s="20"/>
+      <c r="WB1" s="20"/>
+      <c r="WC1" s="20"/>
+      <c r="WD1" s="20"/>
+      <c r="WE1" s="20"/>
+      <c r="WF1" s="20"/>
+      <c r="WG1" s="20"/>
+      <c r="WH1" s="20"/>
+      <c r="WI1" s="20"/>
+      <c r="WJ1" s="20"/>
+      <c r="WK1" s="20"/>
+      <c r="WL1" s="20"/>
+      <c r="WM1" s="20"/>
+      <c r="WN1" s="20"/>
+      <c r="WO1" s="20"/>
+      <c r="WP1" s="20"/>
+      <c r="WQ1" s="20"/>
+      <c r="WR1" s="20"/>
+      <c r="WS1" s="20"/>
+      <c r="WT1" s="20"/>
+      <c r="WU1" s="20"/>
+      <c r="WV1" s="20"/>
+      <c r="WW1" s="20"/>
+      <c r="WX1" s="20"/>
+      <c r="WY1" s="20"/>
+      <c r="WZ1" s="20"/>
+      <c r="XA1" s="20"/>
+      <c r="XB1" s="20"/>
+      <c r="XC1" s="20"/>
+      <c r="XD1" s="20"/>
+      <c r="XE1" s="20"/>
+      <c r="XF1" s="20"/>
+      <c r="XG1" s="20"/>
+      <c r="XH1" s="20"/>
+      <c r="XI1" s="20"/>
+      <c r="XJ1" s="20"/>
+      <c r="XK1" s="20"/>
+      <c r="XL1" s="20"/>
+      <c r="XM1" s="20"/>
+      <c r="XN1" s="20"/>
+      <c r="XO1" s="20"/>
+      <c r="XP1" s="20"/>
+      <c r="XQ1" s="20"/>
+      <c r="XR1" s="20"/>
+      <c r="XS1" s="20"/>
+      <c r="XT1" s="20"/>
+      <c r="XU1" s="20"/>
+      <c r="XV1" s="20"/>
+      <c r="XW1" s="20"/>
+      <c r="XX1" s="20"/>
+      <c r="XY1" s="20"/>
+      <c r="XZ1" s="20"/>
+      <c r="YA1" s="20"/>
+      <c r="YB1" s="20"/>
+      <c r="YC1" s="20"/>
+      <c r="YD1" s="20"/>
+      <c r="YE1" s="20"/>
+      <c r="YF1" s="20"/>
+      <c r="YG1" s="20"/>
+      <c r="YH1" s="20"/>
+      <c r="YI1" s="20"/>
+      <c r="YJ1" s="20"/>
+      <c r="YK1" s="20"/>
+      <c r="YL1" s="20"/>
+      <c r="YM1" s="20"/>
+      <c r="YN1" s="20"/>
+      <c r="YO1" s="20"/>
+      <c r="YP1" s="20"/>
+      <c r="YQ1" s="20"/>
+      <c r="YR1" s="20"/>
+      <c r="YS1" s="20"/>
+      <c r="YT1" s="20"/>
+      <c r="YU1" s="20"/>
+      <c r="YV1" s="20"/>
+      <c r="YW1" s="20"/>
+      <c r="YX1" s="20"/>
+      <c r="YY1" s="20"/>
+      <c r="YZ1" s="20"/>
+      <c r="ZA1" s="20"/>
+      <c r="ZB1" s="20"/>
+      <c r="ZC1" s="20"/>
+      <c r="ZD1" s="20"/>
+      <c r="ZE1" s="20"/>
+      <c r="ZF1" s="20"/>
+      <c r="ZG1" s="20"/>
+      <c r="ZH1" s="20"/>
+      <c r="ZI1" s="20"/>
+      <c r="ZJ1" s="20"/>
+      <c r="ZK1" s="20"/>
+      <c r="ZL1" s="20"/>
+      <c r="ZM1" s="20"/>
+      <c r="ZN1" s="20"/>
+      <c r="ZO1" s="20"/>
+      <c r="ZP1" s="20"/>
+      <c r="ZQ1" s="20"/>
+      <c r="ZR1" s="20"/>
+      <c r="ZS1" s="20"/>
+      <c r="ZT1" s="20"/>
+      <c r="ZU1" s="20"/>
+      <c r="ZV1" s="20"/>
+      <c r="ZW1" s="20"/>
+      <c r="ZX1" s="20"/>
+      <c r="ZY1" s="20"/>
+      <c r="ZZ1" s="20"/>
     </row>
-    <row r="2" spans="1:702" s="22" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:702" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
-      <c r="BH2" s="21"/>
-      <c r="BI2" s="21"/>
-      <c r="BJ2" s="21"/>
-      <c r="BK2" s="21"/>
-      <c r="BL2" s="21"/>
-      <c r="BM2" s="21"/>
-      <c r="BN2" s="21"/>
-      <c r="BO2" s="21"/>
-      <c r="BP2" s="21"/>
-      <c r="BQ2" s="21"/>
-      <c r="BR2" s="21"/>
-      <c r="BS2" s="21"/>
-      <c r="BT2" s="21"/>
-      <c r="BU2" s="21"/>
-      <c r="BV2" s="21"/>
-      <c r="BW2" s="21"/>
-      <c r="BX2" s="21"/>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="21"/>
-      <c r="CC2" s="21"/>
-      <c r="CD2" s="21"/>
-      <c r="CE2" s="21"/>
-      <c r="CF2" s="21"/>
-      <c r="CG2" s="21"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="21"/>
-      <c r="CJ2" s="21"/>
-      <c r="CK2" s="21"/>
-      <c r="CL2" s="21"/>
-      <c r="CM2" s="21"/>
-      <c r="CN2" s="21"/>
-      <c r="CO2" s="21"/>
-      <c r="CP2" s="21"/>
-      <c r="CQ2" s="21"/>
-      <c r="CR2" s="21"/>
-      <c r="CS2" s="21"/>
-      <c r="CT2" s="21"/>
-      <c r="CU2" s="21"/>
-      <c r="CV2" s="21"/>
-      <c r="CW2" s="21"/>
-      <c r="CX2" s="21"/>
-      <c r="CY2" s="21"/>
-      <c r="CZ2" s="21"/>
-      <c r="DA2" s="21"/>
-      <c r="DB2" s="21"/>
-      <c r="DC2" s="21"/>
-      <c r="DD2" s="21"/>
-      <c r="DE2" s="21"/>
-      <c r="DF2" s="21"/>
-      <c r="DG2" s="21"/>
-      <c r="DH2" s="21"/>
-      <c r="DI2" s="21"/>
-      <c r="DJ2" s="21"/>
-      <c r="DK2" s="21"/>
-      <c r="DL2" s="21"/>
-      <c r="DM2" s="21"/>
-      <c r="DN2" s="21"/>
-      <c r="DO2" s="21"/>
-      <c r="DP2" s="21"/>
-      <c r="DQ2" s="21"/>
-      <c r="DR2" s="21"/>
-      <c r="DS2" s="21"/>
-      <c r="DT2" s="21"/>
-      <c r="DU2" s="21"/>
-      <c r="DV2" s="21"/>
-      <c r="DW2" s="21"/>
-      <c r="DX2" s="21"/>
-      <c r="DY2" s="21"/>
-      <c r="DZ2" s="21"/>
-      <c r="EA2" s="21"/>
-      <c r="EB2" s="21"/>
-      <c r="EC2" s="21"/>
-      <c r="ED2" s="21"/>
-      <c r="EE2" s="21"/>
-      <c r="EF2" s="21"/>
-      <c r="EG2" s="21"/>
-      <c r="EH2" s="21"/>
-      <c r="EI2" s="21"/>
-      <c r="EJ2" s="21"/>
-      <c r="EK2" s="21"/>
-      <c r="EL2" s="21"/>
-      <c r="EM2" s="21"/>
-      <c r="EN2" s="21"/>
-      <c r="EO2" s="21"/>
-      <c r="EP2" s="21"/>
-      <c r="EQ2" s="21"/>
-      <c r="ER2" s="21"/>
-      <c r="ES2" s="21"/>
-      <c r="ET2" s="21"/>
-      <c r="EU2" s="21"/>
-      <c r="EV2" s="21"/>
-      <c r="EW2" s="21"/>
-      <c r="EX2" s="21"/>
-      <c r="EY2" s="21"/>
-      <c r="EZ2" s="21"/>
-      <c r="FA2" s="21"/>
-      <c r="FB2" s="21"/>
-      <c r="FC2" s="21"/>
-      <c r="FD2" s="21"/>
-      <c r="FE2" s="21"/>
-      <c r="FF2" s="21"/>
-      <c r="FG2" s="21"/>
-      <c r="FH2" s="21"/>
-      <c r="FI2" s="21"/>
-      <c r="FJ2" s="21"/>
-      <c r="FK2" s="21"/>
-      <c r="FL2" s="21"/>
-      <c r="FM2" s="21"/>
-      <c r="FN2" s="21"/>
-      <c r="FO2" s="21"/>
-      <c r="FP2" s="21"/>
-      <c r="FQ2" s="21"/>
-      <c r="FR2" s="21"/>
-      <c r="FS2" s="21"/>
-      <c r="FT2" s="21"/>
-      <c r="FU2" s="21"/>
-      <c r="FV2" s="21"/>
-      <c r="FW2" s="21"/>
-      <c r="FX2" s="21"/>
-      <c r="FY2" s="21"/>
-      <c r="FZ2" s="21"/>
-      <c r="GA2" s="21"/>
-      <c r="GB2" s="21"/>
-      <c r="GC2" s="21"/>
-      <c r="GD2" s="21"/>
-      <c r="GE2" s="21"/>
-      <c r="GF2" s="21"/>
-      <c r="GG2" s="21"/>
-      <c r="GH2" s="21"/>
-      <c r="GI2" s="21"/>
-      <c r="GJ2" s="21"/>
-      <c r="GK2" s="21"/>
-      <c r="GL2" s="21"/>
-      <c r="GM2" s="21"/>
-      <c r="GN2" s="21"/>
-      <c r="GO2" s="21"/>
-      <c r="GP2" s="21"/>
-      <c r="GQ2" s="21"/>
-      <c r="GR2" s="21"/>
-      <c r="GS2" s="21"/>
-      <c r="GT2" s="21"/>
-      <c r="GU2" s="21"/>
-      <c r="GV2" s="21"/>
-      <c r="GW2" s="21"/>
-      <c r="GX2" s="21"/>
-      <c r="GY2" s="21"/>
-      <c r="GZ2" s="21"/>
-      <c r="HA2" s="21"/>
-      <c r="HB2" s="21"/>
-      <c r="HC2" s="21"/>
-      <c r="HD2" s="21"/>
-      <c r="HE2" s="21"/>
-      <c r="HF2" s="21"/>
-      <c r="HG2" s="21"/>
-      <c r="HH2" s="21"/>
-      <c r="HI2" s="21"/>
-      <c r="HJ2" s="21"/>
-      <c r="HK2" s="21"/>
-      <c r="HL2" s="21"/>
-      <c r="HM2" s="21"/>
-      <c r="HN2" s="21"/>
-      <c r="HO2" s="21"/>
-      <c r="HP2" s="21"/>
-      <c r="HQ2" s="21"/>
-      <c r="HR2" s="21"/>
-      <c r="HS2" s="21"/>
-      <c r="HT2" s="21"/>
-      <c r="HU2" s="21"/>
-      <c r="HV2" s="21"/>
-      <c r="HW2" s="21"/>
-      <c r="HX2" s="21"/>
-      <c r="HY2" s="21"/>
-      <c r="HZ2" s="21"/>
-      <c r="IA2" s="21"/>
-      <c r="IB2" s="21"/>
-      <c r="IC2" s="21"/>
-      <c r="ID2" s="21"/>
-      <c r="IE2" s="21"/>
-      <c r="IF2" s="21"/>
-      <c r="IG2" s="21"/>
-      <c r="IH2" s="21"/>
-      <c r="II2" s="21"/>
-      <c r="IJ2" s="21"/>
-      <c r="IK2" s="21"/>
-      <c r="IL2" s="21"/>
-      <c r="IM2" s="21"/>
-      <c r="IN2" s="21"/>
-      <c r="IO2" s="21"/>
-      <c r="IP2" s="21"/>
-      <c r="IQ2" s="21"/>
-      <c r="IR2" s="21"/>
-      <c r="IS2" s="21"/>
-      <c r="IT2" s="21"/>
-      <c r="IU2" s="21"/>
-      <c r="IV2" s="21"/>
-      <c r="IW2" s="21"/>
-      <c r="IX2" s="21"/>
-      <c r="IY2" s="21"/>
-      <c r="IZ2" s="21"/>
-      <c r="JA2" s="21"/>
-      <c r="JB2" s="21"/>
-      <c r="JC2" s="21"/>
-      <c r="JD2" s="21"/>
-      <c r="JE2" s="21"/>
-      <c r="JF2" s="21"/>
-      <c r="JG2" s="21"/>
-      <c r="JH2" s="21"/>
-      <c r="JI2" s="21"/>
-      <c r="JJ2" s="21"/>
-      <c r="JK2" s="21"/>
-      <c r="JL2" s="21"/>
-      <c r="JM2" s="21"/>
-      <c r="JN2" s="21"/>
-      <c r="JO2" s="21"/>
-      <c r="JP2" s="21"/>
-      <c r="JQ2" s="21"/>
-      <c r="JR2" s="21"/>
-      <c r="JS2" s="21"/>
-      <c r="JT2" s="21"/>
-      <c r="JU2" s="21"/>
-      <c r="JV2" s="21"/>
-      <c r="JW2" s="21"/>
-      <c r="JX2" s="21"/>
-      <c r="JY2" s="21"/>
-      <c r="JZ2" s="21"/>
-      <c r="KA2" s="21"/>
-      <c r="KB2" s="21"/>
-      <c r="KC2" s="21"/>
-      <c r="KD2" s="21"/>
-      <c r="KE2" s="21"/>
-      <c r="KF2" s="21"/>
-      <c r="KG2" s="21"/>
-      <c r="KH2" s="21"/>
-      <c r="KI2" s="21"/>
-      <c r="KJ2" s="21"/>
-      <c r="KK2" s="21"/>
-      <c r="KL2" s="21"/>
-      <c r="KM2" s="21"/>
-      <c r="KN2" s="21"/>
-      <c r="KO2" s="21"/>
-      <c r="KP2" s="21"/>
-      <c r="KQ2" s="21"/>
-      <c r="KR2" s="21"/>
-      <c r="KS2" s="21"/>
-      <c r="KT2" s="21"/>
-      <c r="KU2" s="21"/>
-      <c r="KV2" s="21"/>
-      <c r="KW2" s="21"/>
-      <c r="KX2" s="21"/>
-      <c r="KY2" s="21"/>
-      <c r="KZ2" s="21"/>
-      <c r="LA2" s="21"/>
-      <c r="LB2" s="21"/>
-      <c r="LC2" s="21"/>
-      <c r="LD2" s="21"/>
-      <c r="LE2" s="21"/>
-      <c r="LF2" s="21"/>
-      <c r="LG2" s="21"/>
-      <c r="LH2" s="21"/>
-      <c r="LI2" s="21"/>
-      <c r="LJ2" s="21"/>
-      <c r="LK2" s="21"/>
-      <c r="LL2" s="21"/>
-      <c r="LM2" s="21"/>
-      <c r="LN2" s="21"/>
-      <c r="LO2" s="21"/>
-      <c r="LP2" s="21"/>
-      <c r="LQ2" s="21"/>
-      <c r="LR2" s="21"/>
-      <c r="LS2" s="21"/>
-      <c r="LT2" s="21"/>
-      <c r="LU2" s="21"/>
-      <c r="LV2" s="21"/>
-      <c r="LW2" s="21"/>
-      <c r="LX2" s="21"/>
-      <c r="LY2" s="21"/>
-      <c r="LZ2" s="21"/>
-      <c r="MA2" s="21"/>
-      <c r="MB2" s="21"/>
-      <c r="MC2" s="21"/>
-      <c r="MD2" s="21"/>
-      <c r="ME2" s="21"/>
-      <c r="MF2" s="21"/>
-      <c r="MG2" s="21"/>
-      <c r="MH2" s="21"/>
-      <c r="MI2" s="21"/>
-      <c r="MJ2" s="21"/>
-      <c r="MK2" s="21"/>
-      <c r="ML2" s="21"/>
-      <c r="MM2" s="21"/>
-      <c r="MN2" s="21"/>
-      <c r="MO2" s="21"/>
-      <c r="MP2" s="21"/>
-      <c r="MQ2" s="21"/>
-      <c r="MR2" s="21"/>
-      <c r="MS2" s="21"/>
-      <c r="MT2" s="21"/>
-      <c r="MU2" s="21"/>
-      <c r="MV2" s="21"/>
-      <c r="MW2" s="21"/>
-      <c r="MX2" s="21"/>
-      <c r="MY2" s="21"/>
-      <c r="MZ2" s="21"/>
-      <c r="NA2" s="21"/>
-      <c r="NB2" s="21"/>
-      <c r="NC2" s="21"/>
-      <c r="ND2" s="21"/>
-      <c r="NE2" s="21"/>
-      <c r="NF2" s="21"/>
-      <c r="NG2" s="21"/>
-      <c r="NH2" s="21"/>
-      <c r="NI2" s="21"/>
-      <c r="NJ2" s="21"/>
-      <c r="NK2" s="21"/>
-      <c r="NL2" s="21"/>
-      <c r="NM2" s="21"/>
-      <c r="NN2" s="21"/>
-      <c r="NO2" s="21"/>
-      <c r="NP2" s="21"/>
-      <c r="NQ2" s="21"/>
-      <c r="NR2" s="21"/>
-      <c r="NS2" s="21"/>
-      <c r="NT2" s="21"/>
-      <c r="NU2" s="21"/>
-      <c r="NV2" s="21"/>
-      <c r="NW2" s="21"/>
-      <c r="NX2" s="21"/>
-      <c r="NY2" s="21"/>
-      <c r="NZ2" s="21"/>
-      <c r="OA2" s="21"/>
-      <c r="OB2" s="21"/>
-      <c r="OC2" s="21"/>
-      <c r="OD2" s="21"/>
-      <c r="OE2" s="21"/>
-      <c r="OF2" s="21"/>
-      <c r="OG2" s="21"/>
-      <c r="OH2" s="21"/>
-      <c r="OI2" s="21"/>
-      <c r="OJ2" s="21"/>
-      <c r="OK2" s="21"/>
-      <c r="OL2" s="21"/>
-      <c r="OM2" s="21"/>
-      <c r="ON2" s="21"/>
-      <c r="OO2" s="21"/>
-      <c r="OP2" s="21"/>
-      <c r="OQ2" s="21"/>
-      <c r="OR2" s="21"/>
-      <c r="OS2" s="21"/>
-      <c r="OT2" s="21"/>
-      <c r="OU2" s="21"/>
-      <c r="OV2" s="21"/>
-      <c r="OW2" s="21"/>
-      <c r="OX2" s="21"/>
-      <c r="OY2" s="21"/>
-      <c r="OZ2" s="21"/>
-      <c r="PA2" s="21"/>
-      <c r="PB2" s="21"/>
-      <c r="PC2" s="21"/>
-      <c r="PD2" s="21"/>
-      <c r="PE2" s="21"/>
-      <c r="PF2" s="21"/>
-      <c r="PG2" s="21"/>
-      <c r="PH2" s="21"/>
-      <c r="PI2" s="21"/>
-      <c r="PJ2" s="21"/>
-      <c r="PK2" s="21"/>
-      <c r="PL2" s="21"/>
-      <c r="PM2" s="21"/>
-      <c r="PN2" s="21"/>
-      <c r="PO2" s="21"/>
-      <c r="PP2" s="21"/>
-      <c r="PQ2" s="21"/>
-      <c r="PR2" s="21"/>
-      <c r="PS2" s="21"/>
-      <c r="PT2" s="21"/>
-      <c r="PU2" s="21"/>
-      <c r="PV2" s="21"/>
-      <c r="PW2" s="21"/>
-      <c r="PX2" s="21"/>
-      <c r="PY2" s="21"/>
-      <c r="PZ2" s="21"/>
-      <c r="QA2" s="21"/>
-      <c r="QB2" s="21"/>
-      <c r="QC2" s="21"/>
-      <c r="QD2" s="21"/>
-      <c r="QE2" s="21"/>
-      <c r="QF2" s="21"/>
-      <c r="QG2" s="21"/>
-      <c r="QH2" s="21"/>
-      <c r="QI2" s="21"/>
-      <c r="QJ2" s="21"/>
-      <c r="QK2" s="21"/>
-      <c r="QL2" s="21"/>
-      <c r="QM2" s="21"/>
-      <c r="QN2" s="21"/>
-      <c r="QO2" s="21"/>
-      <c r="QP2" s="21"/>
-      <c r="QQ2" s="21"/>
-      <c r="QR2" s="21"/>
-      <c r="QS2" s="21"/>
-      <c r="QT2" s="21"/>
-      <c r="QU2" s="21"/>
-      <c r="QV2" s="21"/>
-      <c r="QW2" s="21"/>
-      <c r="QX2" s="21"/>
-      <c r="QY2" s="21"/>
-      <c r="QZ2" s="21"/>
-      <c r="RA2" s="21"/>
-      <c r="RB2" s="21"/>
-      <c r="RC2" s="21"/>
-      <c r="RD2" s="21"/>
-      <c r="RE2" s="21"/>
-      <c r="RF2" s="21"/>
-      <c r="RG2" s="21"/>
-      <c r="RH2" s="21"/>
-      <c r="RI2" s="21"/>
-      <c r="RJ2" s="21"/>
-      <c r="RK2" s="21"/>
-      <c r="RL2" s="21"/>
-      <c r="RM2" s="21"/>
-      <c r="RN2" s="21"/>
-      <c r="RO2" s="21"/>
-      <c r="RP2" s="21"/>
-      <c r="RQ2" s="21"/>
-      <c r="RR2" s="21"/>
-      <c r="RS2" s="21"/>
-      <c r="RT2" s="21"/>
-      <c r="RU2" s="21"/>
-      <c r="RV2" s="21"/>
-      <c r="RW2" s="21"/>
-      <c r="RX2" s="21"/>
-      <c r="RY2" s="21"/>
-      <c r="RZ2" s="21"/>
-      <c r="SA2" s="21"/>
-      <c r="SB2" s="21"/>
-      <c r="SC2" s="21"/>
-      <c r="SD2" s="21"/>
-      <c r="SE2" s="21"/>
-      <c r="SF2" s="21"/>
-      <c r="SG2" s="21"/>
-      <c r="SH2" s="21"/>
-      <c r="SI2" s="21"/>
-      <c r="SJ2" s="21"/>
-      <c r="SK2" s="21"/>
-      <c r="SL2" s="21"/>
-      <c r="SM2" s="21"/>
-      <c r="SN2" s="21"/>
-      <c r="SO2" s="21"/>
-      <c r="SP2" s="21"/>
-      <c r="SQ2" s="21"/>
-      <c r="SR2" s="21"/>
-      <c r="SS2" s="21"/>
-      <c r="ST2" s="21"/>
-      <c r="SU2" s="21"/>
-      <c r="SV2" s="21"/>
-      <c r="SW2" s="21"/>
-      <c r="SX2" s="21"/>
-      <c r="SY2" s="21"/>
-      <c r="SZ2" s="21"/>
-      <c r="TA2" s="21"/>
-      <c r="TB2" s="21"/>
-      <c r="TC2" s="21"/>
-      <c r="TD2" s="21"/>
-      <c r="TE2" s="21"/>
-      <c r="TF2" s="21"/>
-      <c r="TG2" s="21"/>
-      <c r="TH2" s="21"/>
-      <c r="TI2" s="21"/>
-      <c r="TJ2" s="21"/>
-      <c r="TK2" s="21"/>
-      <c r="TL2" s="21"/>
-      <c r="TM2" s="21"/>
-      <c r="TN2" s="21"/>
-      <c r="TO2" s="21"/>
-      <c r="TP2" s="21"/>
-      <c r="TQ2" s="21"/>
-      <c r="TR2" s="21"/>
-      <c r="TS2" s="21"/>
-      <c r="TT2" s="21"/>
-      <c r="TU2" s="21"/>
-      <c r="TV2" s="21"/>
-      <c r="TW2" s="21"/>
-      <c r="TX2" s="21"/>
-      <c r="TY2" s="21"/>
-      <c r="TZ2" s="21"/>
-      <c r="UA2" s="21"/>
-      <c r="UB2" s="21"/>
-      <c r="UC2" s="21"/>
-      <c r="UD2" s="21"/>
-      <c r="UE2" s="21"/>
-      <c r="UF2" s="21"/>
-      <c r="UG2" s="21"/>
-      <c r="UH2" s="21"/>
-      <c r="UI2" s="21"/>
-      <c r="UJ2" s="21"/>
-      <c r="UK2" s="21"/>
-      <c r="UL2" s="21"/>
-      <c r="UM2" s="21"/>
-      <c r="UN2" s="21"/>
-      <c r="UO2" s="21"/>
-      <c r="UP2" s="21"/>
-      <c r="UQ2" s="21"/>
-      <c r="UR2" s="21"/>
-      <c r="US2" s="21"/>
-      <c r="UT2" s="21"/>
-      <c r="UU2" s="21"/>
-      <c r="UV2" s="21"/>
-      <c r="UW2" s="21"/>
-      <c r="UX2" s="21"/>
-      <c r="UY2" s="21"/>
-      <c r="UZ2" s="21"/>
-      <c r="VA2" s="21"/>
-      <c r="VB2" s="21"/>
-      <c r="VC2" s="21"/>
-      <c r="VD2" s="21"/>
-      <c r="VE2" s="21"/>
-      <c r="VF2" s="21"/>
-      <c r="VG2" s="21"/>
-      <c r="VH2" s="21"/>
-      <c r="VI2" s="21"/>
-      <c r="VJ2" s="21"/>
-      <c r="VK2" s="21"/>
-      <c r="VL2" s="21"/>
-      <c r="VM2" s="21"/>
-      <c r="VN2" s="21"/>
-      <c r="VO2" s="21"/>
-      <c r="VP2" s="21"/>
-      <c r="VQ2" s="21"/>
-      <c r="VR2" s="21"/>
-      <c r="VS2" s="21"/>
-      <c r="VT2" s="21"/>
-      <c r="VU2" s="21"/>
-      <c r="VV2" s="21"/>
-      <c r="VW2" s="21"/>
-      <c r="VX2" s="21"/>
-      <c r="VY2" s="21"/>
-      <c r="VZ2" s="21"/>
-      <c r="WA2" s="21"/>
-      <c r="WB2" s="21"/>
-      <c r="WC2" s="21"/>
-      <c r="WD2" s="21"/>
-      <c r="WE2" s="21"/>
-      <c r="WF2" s="21"/>
-      <c r="WG2" s="21"/>
-      <c r="WH2" s="21"/>
-      <c r="WI2" s="21"/>
-      <c r="WJ2" s="21"/>
-      <c r="WK2" s="21"/>
-      <c r="WL2" s="21"/>
-      <c r="WM2" s="21"/>
-      <c r="WN2" s="21"/>
-      <c r="WO2" s="21"/>
-      <c r="WP2" s="21"/>
-      <c r="WQ2" s="21"/>
-      <c r="WR2" s="21"/>
-      <c r="WS2" s="21"/>
-      <c r="WT2" s="21"/>
-      <c r="WU2" s="21"/>
-      <c r="WV2" s="21"/>
-      <c r="WW2" s="21"/>
-      <c r="WX2" s="21"/>
-      <c r="WY2" s="21"/>
-      <c r="WZ2" s="21"/>
-      <c r="XA2" s="21"/>
-      <c r="XB2" s="21"/>
-      <c r="XC2" s="21"/>
-      <c r="XD2" s="21"/>
-      <c r="XE2" s="21"/>
-      <c r="XF2" s="21"/>
-      <c r="XG2" s="21"/>
-      <c r="XH2" s="21"/>
-      <c r="XI2" s="21"/>
-      <c r="XJ2" s="21"/>
-      <c r="XK2" s="21"/>
-      <c r="XL2" s="21"/>
-      <c r="XM2" s="21"/>
-      <c r="XN2" s="21"/>
-      <c r="XO2" s="21"/>
-      <c r="XP2" s="21"/>
-      <c r="XQ2" s="21"/>
-      <c r="XR2" s="21"/>
-      <c r="XS2" s="21"/>
-      <c r="XT2" s="21"/>
-      <c r="XU2" s="21"/>
-      <c r="XV2" s="21"/>
-      <c r="XW2" s="21"/>
-      <c r="XX2" s="21"/>
-      <c r="XY2" s="21"/>
-      <c r="XZ2" s="21"/>
-      <c r="YA2" s="21"/>
-      <c r="YB2" s="21"/>
-      <c r="YC2" s="21"/>
-      <c r="YD2" s="21"/>
-      <c r="YE2" s="21"/>
-      <c r="YF2" s="21"/>
-      <c r="YG2" s="21"/>
-      <c r="YH2" s="21"/>
-      <c r="YI2" s="21"/>
-      <c r="YJ2" s="21"/>
-      <c r="YK2" s="21"/>
-      <c r="YL2" s="21"/>
-      <c r="YM2" s="21"/>
-      <c r="YN2" s="21"/>
-      <c r="YO2" s="21"/>
-      <c r="YP2" s="21"/>
-      <c r="YQ2" s="21"/>
-      <c r="YR2" s="21"/>
-      <c r="YS2" s="21"/>
-      <c r="YT2" s="21"/>
-      <c r="YU2" s="21"/>
-      <c r="YV2" s="21"/>
-      <c r="YW2" s="21"/>
-      <c r="YX2" s="21"/>
-      <c r="YY2" s="21"/>
-      <c r="YZ2" s="21"/>
-      <c r="ZA2" s="21"/>
-      <c r="ZB2" s="21"/>
-      <c r="ZC2" s="21"/>
-      <c r="ZD2" s="21"/>
-      <c r="ZE2" s="21"/>
-      <c r="ZF2" s="21"/>
-      <c r="ZG2" s="21"/>
-      <c r="ZH2" s="21"/>
-      <c r="ZI2" s="21"/>
-      <c r="ZJ2" s="21"/>
-      <c r="ZK2" s="21"/>
-      <c r="ZL2" s="21"/>
-      <c r="ZM2" s="21"/>
-      <c r="ZN2" s="21"/>
-      <c r="ZO2" s="21"/>
-      <c r="ZP2" s="21"/>
-      <c r="ZQ2" s="21"/>
-      <c r="ZR2" s="21"/>
-      <c r="ZS2" s="21"/>
-      <c r="ZT2" s="21"/>
-      <c r="ZU2" s="21"/>
-      <c r="ZV2" s="21"/>
-      <c r="ZW2" s="21"/>
-      <c r="ZX2" s="21"/>
-      <c r="ZY2" s="21"/>
-      <c r="ZZ2" s="21"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="8"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8"/>
+      <c r="CR2" s="8"/>
+      <c r="CS2" s="8"/>
+      <c r="CT2" s="8"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="8"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="8"/>
+      <c r="DA2" s="8"/>
+      <c r="DB2" s="8"/>
+      <c r="DC2" s="8"/>
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="8"/>
+      <c r="DF2" s="8"/>
+      <c r="DG2" s="8"/>
+      <c r="DH2" s="8"/>
+      <c r="DI2" s="8"/>
+      <c r="DJ2" s="8"/>
+      <c r="DK2" s="8"/>
+      <c r="DL2" s="8"/>
+      <c r="DM2" s="8"/>
+      <c r="DN2" s="8"/>
+      <c r="DO2" s="8"/>
+      <c r="DP2" s="8"/>
+      <c r="DQ2" s="8"/>
+      <c r="DR2" s="8"/>
+      <c r="DS2" s="8"/>
+      <c r="DT2" s="8"/>
+      <c r="DU2" s="8"/>
+      <c r="DV2" s="8"/>
+      <c r="DW2" s="8"/>
+      <c r="DX2" s="8"/>
+      <c r="DY2" s="8"/>
+      <c r="DZ2" s="8"/>
+      <c r="EA2" s="8"/>
+      <c r="EB2" s="8"/>
+      <c r="EC2" s="8"/>
+      <c r="ED2" s="8"/>
+      <c r="EE2" s="8"/>
+      <c r="EF2" s="8"/>
+      <c r="EG2" s="8"/>
+      <c r="EH2" s="8"/>
+      <c r="EI2" s="8"/>
+      <c r="EJ2" s="8"/>
+      <c r="EK2" s="8"/>
+      <c r="EL2" s="8"/>
+      <c r="EM2" s="8"/>
+      <c r="EN2" s="8"/>
+      <c r="EO2" s="8"/>
+      <c r="EP2" s="8"/>
+      <c r="EQ2" s="8"/>
+      <c r="ER2" s="8"/>
+      <c r="ES2" s="8"/>
+      <c r="ET2" s="8"/>
+      <c r="EU2" s="8"/>
+      <c r="EV2" s="8"/>
+      <c r="EW2" s="8"/>
+      <c r="EX2" s="8"/>
+      <c r="EY2" s="8"/>
+      <c r="EZ2" s="8"/>
+      <c r="FA2" s="8"/>
+      <c r="FB2" s="8"/>
+      <c r="FC2" s="8"/>
+      <c r="FD2" s="8"/>
+      <c r="FE2" s="8"/>
+      <c r="FF2" s="8"/>
+      <c r="FG2" s="8"/>
+      <c r="FH2" s="8"/>
+      <c r="FI2" s="8"/>
+      <c r="FJ2" s="8"/>
+      <c r="FK2" s="8"/>
+      <c r="FL2" s="8"/>
+      <c r="FM2" s="8"/>
+      <c r="FN2" s="8"/>
+      <c r="FO2" s="8"/>
+      <c r="FP2" s="8"/>
+      <c r="FQ2" s="8"/>
+      <c r="FR2" s="8"/>
+      <c r="FS2" s="8"/>
+      <c r="FT2" s="8"/>
+      <c r="FU2" s="8"/>
+      <c r="FV2" s="8"/>
+      <c r="FW2" s="8"/>
+      <c r="FX2" s="8"/>
+      <c r="FY2" s="8"/>
+      <c r="FZ2" s="8"/>
+      <c r="GA2" s="8"/>
+      <c r="GB2" s="8"/>
+      <c r="GC2" s="8"/>
+      <c r="GD2" s="8"/>
+      <c r="GE2" s="8"/>
+      <c r="GF2" s="8"/>
+      <c r="GG2" s="8"/>
+      <c r="GH2" s="8"/>
+      <c r="GI2" s="8"/>
+      <c r="GJ2" s="8"/>
+      <c r="GK2" s="8"/>
+      <c r="GL2" s="8"/>
+      <c r="GM2" s="8"/>
+      <c r="GN2" s="8"/>
+      <c r="GO2" s="8"/>
+      <c r="GP2" s="8"/>
+      <c r="GQ2" s="8"/>
+      <c r="GR2" s="8"/>
+      <c r="GS2" s="8"/>
+      <c r="GT2" s="8"/>
+      <c r="GU2" s="8"/>
+      <c r="GV2" s="8"/>
+      <c r="GW2" s="8"/>
+      <c r="GX2" s="8"/>
+      <c r="GY2" s="8"/>
+      <c r="GZ2" s="8"/>
+      <c r="HA2" s="8"/>
+      <c r="HB2" s="8"/>
+      <c r="HC2" s="8"/>
+      <c r="HD2" s="8"/>
+      <c r="HE2" s="8"/>
+      <c r="HF2" s="8"/>
+      <c r="HG2" s="8"/>
+      <c r="HH2" s="8"/>
+      <c r="HI2" s="8"/>
+      <c r="HJ2" s="8"/>
+      <c r="HK2" s="8"/>
+      <c r="HL2" s="8"/>
+      <c r="HM2" s="8"/>
+      <c r="HN2" s="8"/>
+      <c r="HO2" s="8"/>
+      <c r="HP2" s="8"/>
+      <c r="HQ2" s="8"/>
+      <c r="HR2" s="8"/>
+      <c r="HS2" s="8"/>
+      <c r="HT2" s="8"/>
+      <c r="HU2" s="8"/>
+      <c r="HV2" s="8"/>
+      <c r="HW2" s="8"/>
+      <c r="HX2" s="8"/>
+      <c r="HY2" s="8"/>
+      <c r="HZ2" s="8"/>
+      <c r="IA2" s="8"/>
+      <c r="IB2" s="8"/>
+      <c r="IC2" s="8"/>
+      <c r="ID2" s="8"/>
+      <c r="IE2" s="8"/>
+      <c r="IF2" s="8"/>
+      <c r="IG2" s="8"/>
+      <c r="IH2" s="8"/>
+      <c r="II2" s="8"/>
+      <c r="IJ2" s="8"/>
+      <c r="IK2" s="8"/>
+      <c r="IL2" s="8"/>
+      <c r="IM2" s="8"/>
+      <c r="IN2" s="8"/>
+      <c r="IO2" s="8"/>
+      <c r="IP2" s="8"/>
+      <c r="IQ2" s="8"/>
+      <c r="IR2" s="8"/>
+      <c r="IS2" s="8"/>
+      <c r="IT2" s="8"/>
+      <c r="IU2" s="8"/>
+      <c r="IV2" s="8"/>
+      <c r="IW2" s="8"/>
+      <c r="IX2" s="8"/>
+      <c r="IY2" s="8"/>
+      <c r="IZ2" s="8"/>
+      <c r="JA2" s="8"/>
+      <c r="JB2" s="8"/>
+      <c r="JC2" s="8"/>
+      <c r="JD2" s="8"/>
+      <c r="JE2" s="8"/>
+      <c r="JF2" s="8"/>
+      <c r="JG2" s="8"/>
+      <c r="JH2" s="8"/>
+      <c r="JI2" s="8"/>
+      <c r="JJ2" s="8"/>
+      <c r="JK2" s="8"/>
+      <c r="JL2" s="8"/>
+      <c r="JM2" s="8"/>
+      <c r="JN2" s="8"/>
+      <c r="JO2" s="8"/>
+      <c r="JP2" s="8"/>
+      <c r="JQ2" s="8"/>
+      <c r="JR2" s="8"/>
+      <c r="JS2" s="8"/>
+      <c r="JT2" s="8"/>
+      <c r="JU2" s="8"/>
+      <c r="JV2" s="8"/>
+      <c r="JW2" s="8"/>
+      <c r="JX2" s="8"/>
+      <c r="JY2" s="8"/>
+      <c r="JZ2" s="8"/>
+      <c r="KA2" s="8"/>
+      <c r="KB2" s="8"/>
+      <c r="KC2" s="8"/>
+      <c r="KD2" s="8"/>
+      <c r="KE2" s="8"/>
+      <c r="KF2" s="8"/>
+      <c r="KG2" s="8"/>
+      <c r="KH2" s="8"/>
+      <c r="KI2" s="8"/>
+      <c r="KJ2" s="8"/>
+      <c r="KK2" s="8"/>
+      <c r="KL2" s="8"/>
+      <c r="KM2" s="8"/>
+      <c r="KN2" s="8"/>
+      <c r="KO2" s="8"/>
+      <c r="KP2" s="8"/>
+      <c r="KQ2" s="8"/>
+      <c r="KR2" s="8"/>
+      <c r="KS2" s="8"/>
+      <c r="KT2" s="8"/>
+      <c r="KU2" s="8"/>
+      <c r="KV2" s="8"/>
+      <c r="KW2" s="8"/>
+      <c r="KX2" s="8"/>
+      <c r="KY2" s="8"/>
+      <c r="KZ2" s="8"/>
+      <c r="LA2" s="8"/>
+      <c r="LB2" s="8"/>
+      <c r="LC2" s="8"/>
+      <c r="LD2" s="8"/>
+      <c r="LE2" s="8"/>
+      <c r="LF2" s="8"/>
+      <c r="LG2" s="8"/>
+      <c r="LH2" s="8"/>
+      <c r="LI2" s="8"/>
+      <c r="LJ2" s="8"/>
+      <c r="LK2" s="8"/>
+      <c r="LL2" s="8"/>
+      <c r="LM2" s="8"/>
+      <c r="LN2" s="8"/>
+      <c r="LO2" s="8"/>
+      <c r="LP2" s="8"/>
+      <c r="LQ2" s="8"/>
+      <c r="LR2" s="8"/>
+      <c r="LS2" s="8"/>
+      <c r="LT2" s="8"/>
+      <c r="LU2" s="8"/>
+      <c r="LV2" s="8"/>
+      <c r="LW2" s="8"/>
+      <c r="LX2" s="8"/>
+      <c r="LY2" s="8"/>
+      <c r="LZ2" s="8"/>
+      <c r="MA2" s="8"/>
+      <c r="MB2" s="8"/>
+      <c r="MC2" s="8"/>
+      <c r="MD2" s="8"/>
+      <c r="ME2" s="8"/>
+      <c r="MF2" s="8"/>
+      <c r="MG2" s="8"/>
+      <c r="MH2" s="8"/>
+      <c r="MI2" s="8"/>
+      <c r="MJ2" s="8"/>
+      <c r="MK2" s="8"/>
+      <c r="ML2" s="8"/>
+      <c r="MM2" s="8"/>
+      <c r="MN2" s="8"/>
+      <c r="MO2" s="8"/>
+      <c r="MP2" s="8"/>
+      <c r="MQ2" s="8"/>
+      <c r="MR2" s="8"/>
+      <c r="MS2" s="8"/>
+      <c r="MT2" s="8"/>
+      <c r="MU2" s="8"/>
+      <c r="MV2" s="8"/>
+      <c r="MW2" s="8"/>
+      <c r="MX2" s="8"/>
+      <c r="MY2" s="8"/>
+      <c r="MZ2" s="8"/>
+      <c r="NA2" s="8"/>
+      <c r="NB2" s="8"/>
+      <c r="NC2" s="8"/>
+      <c r="ND2" s="8"/>
+      <c r="NE2" s="8"/>
+      <c r="NF2" s="8"/>
+      <c r="NG2" s="8"/>
+      <c r="NH2" s="8"/>
+      <c r="NI2" s="8"/>
+      <c r="NJ2" s="8"/>
+      <c r="NK2" s="8"/>
+      <c r="NL2" s="8"/>
+      <c r="NM2" s="8"/>
+      <c r="NN2" s="8"/>
+      <c r="NO2" s="8"/>
+      <c r="NP2" s="8"/>
+      <c r="NQ2" s="8"/>
+      <c r="NR2" s="8"/>
+      <c r="NS2" s="8"/>
+      <c r="NT2" s="8"/>
+      <c r="NU2" s="8"/>
+      <c r="NV2" s="8"/>
+      <c r="NW2" s="8"/>
+      <c r="NX2" s="8"/>
+      <c r="NY2" s="8"/>
+      <c r="NZ2" s="8"/>
+      <c r="OA2" s="8"/>
+      <c r="OB2" s="8"/>
+      <c r="OC2" s="8"/>
+      <c r="OD2" s="8"/>
+      <c r="OE2" s="8"/>
+      <c r="OF2" s="8"/>
+      <c r="OG2" s="8"/>
+      <c r="OH2" s="8"/>
+      <c r="OI2" s="8"/>
+      <c r="OJ2" s="8"/>
+      <c r="OK2" s="8"/>
+      <c r="OL2" s="8"/>
+      <c r="OM2" s="8"/>
+      <c r="ON2" s="8"/>
+      <c r="OO2" s="8"/>
+      <c r="OP2" s="8"/>
+      <c r="OQ2" s="8"/>
+      <c r="OR2" s="8"/>
+      <c r="OS2" s="8"/>
+      <c r="OT2" s="8"/>
+      <c r="OU2" s="8"/>
+      <c r="OV2" s="8"/>
+      <c r="OW2" s="8"/>
+      <c r="OX2" s="8"/>
+      <c r="OY2" s="8"/>
+      <c r="OZ2" s="8"/>
+      <c r="PA2" s="8"/>
+      <c r="PB2" s="8"/>
+      <c r="PC2" s="8"/>
+      <c r="PD2" s="8"/>
+      <c r="PE2" s="8"/>
+      <c r="PF2" s="8"/>
+      <c r="PG2" s="8"/>
+      <c r="PH2" s="8"/>
+      <c r="PI2" s="8"/>
+      <c r="PJ2" s="8"/>
+      <c r="PK2" s="8"/>
+      <c r="PL2" s="8"/>
+      <c r="PM2" s="8"/>
+      <c r="PN2" s="8"/>
+      <c r="PO2" s="8"/>
+      <c r="PP2" s="8"/>
+      <c r="PQ2" s="8"/>
+      <c r="PR2" s="8"/>
+      <c r="PS2" s="8"/>
+      <c r="PT2" s="8"/>
+      <c r="PU2" s="8"/>
+      <c r="PV2" s="8"/>
+      <c r="PW2" s="8"/>
+      <c r="PX2" s="8"/>
+      <c r="PY2" s="8"/>
+      <c r="PZ2" s="8"/>
+      <c r="QA2" s="8"/>
+      <c r="QB2" s="8"/>
+      <c r="QC2" s="8"/>
+      <c r="QD2" s="8"/>
+      <c r="QE2" s="8"/>
+      <c r="QF2" s="8"/>
+      <c r="QG2" s="8"/>
+      <c r="QH2" s="8"/>
+      <c r="QI2" s="8"/>
+      <c r="QJ2" s="8"/>
+      <c r="QK2" s="8"/>
+      <c r="QL2" s="8"/>
+      <c r="QM2" s="8"/>
+      <c r="QN2" s="8"/>
+      <c r="QO2" s="8"/>
+      <c r="QP2" s="8"/>
+      <c r="QQ2" s="8"/>
+      <c r="QR2" s="8"/>
+      <c r="QS2" s="8"/>
+      <c r="QT2" s="8"/>
+      <c r="QU2" s="8"/>
+      <c r="QV2" s="8"/>
+      <c r="QW2" s="8"/>
+      <c r="QX2" s="8"/>
+      <c r="QY2" s="8"/>
+      <c r="QZ2" s="8"/>
+      <c r="RA2" s="8"/>
+      <c r="RB2" s="8"/>
+      <c r="RC2" s="8"/>
+      <c r="RD2" s="8"/>
+      <c r="RE2" s="8"/>
+      <c r="RF2" s="8"/>
+      <c r="RG2" s="8"/>
+      <c r="RH2" s="8"/>
+      <c r="RI2" s="8"/>
+      <c r="RJ2" s="8"/>
+      <c r="RK2" s="8"/>
+      <c r="RL2" s="8"/>
+      <c r="RM2" s="8"/>
+      <c r="RN2" s="8"/>
+      <c r="RO2" s="8"/>
+      <c r="RP2" s="8"/>
+      <c r="RQ2" s="8"/>
+      <c r="RR2" s="8"/>
+      <c r="RS2" s="8"/>
+      <c r="RT2" s="8"/>
+      <c r="RU2" s="8"/>
+      <c r="RV2" s="8"/>
+      <c r="RW2" s="8"/>
+      <c r="RX2" s="8"/>
+      <c r="RY2" s="8"/>
+      <c r="RZ2" s="8"/>
+      <c r="SA2" s="8"/>
+      <c r="SB2" s="8"/>
+      <c r="SC2" s="8"/>
+      <c r="SD2" s="8"/>
+      <c r="SE2" s="8"/>
+      <c r="SF2" s="8"/>
+      <c r="SG2" s="8"/>
+      <c r="SH2" s="8"/>
+      <c r="SI2" s="8"/>
+      <c r="SJ2" s="8"/>
+      <c r="SK2" s="8"/>
+      <c r="SL2" s="8"/>
+      <c r="SM2" s="8"/>
+      <c r="SN2" s="8"/>
+      <c r="SO2" s="8"/>
+      <c r="SP2" s="8"/>
+      <c r="SQ2" s="8"/>
+      <c r="SR2" s="8"/>
+      <c r="SS2" s="8"/>
+      <c r="ST2" s="8"/>
+      <c r="SU2" s="8"/>
+      <c r="SV2" s="8"/>
+      <c r="SW2" s="8"/>
+      <c r="SX2" s="8"/>
+      <c r="SY2" s="8"/>
+      <c r="SZ2" s="8"/>
+      <c r="TA2" s="8"/>
+      <c r="TB2" s="8"/>
+      <c r="TC2" s="8"/>
+      <c r="TD2" s="8"/>
+      <c r="TE2" s="8"/>
+      <c r="TF2" s="8"/>
+      <c r="TG2" s="8"/>
+      <c r="TH2" s="8"/>
+      <c r="TI2" s="8"/>
+      <c r="TJ2" s="8"/>
+      <c r="TK2" s="8"/>
+      <c r="TL2" s="8"/>
+      <c r="TM2" s="8"/>
+      <c r="TN2" s="8"/>
+      <c r="TO2" s="8"/>
+      <c r="TP2" s="8"/>
+      <c r="TQ2" s="8"/>
+      <c r="TR2" s="8"/>
+      <c r="TS2" s="8"/>
+      <c r="TT2" s="8"/>
+      <c r="TU2" s="8"/>
+      <c r="TV2" s="8"/>
+      <c r="TW2" s="8"/>
+      <c r="TX2" s="8"/>
+      <c r="TY2" s="8"/>
+      <c r="TZ2" s="8"/>
+      <c r="UA2" s="8"/>
+      <c r="UB2" s="8"/>
+      <c r="UC2" s="8"/>
+      <c r="UD2" s="8"/>
+      <c r="UE2" s="8"/>
+      <c r="UF2" s="8"/>
+      <c r="UG2" s="8"/>
+      <c r="UH2" s="8"/>
+      <c r="UI2" s="8"/>
+      <c r="UJ2" s="8"/>
+      <c r="UK2" s="8"/>
+      <c r="UL2" s="8"/>
+      <c r="UM2" s="8"/>
+      <c r="UN2" s="8"/>
+      <c r="UO2" s="8"/>
+      <c r="UP2" s="8"/>
+      <c r="UQ2" s="8"/>
+      <c r="UR2" s="8"/>
+      <c r="US2" s="8"/>
+      <c r="UT2" s="8"/>
+      <c r="UU2" s="8"/>
+      <c r="UV2" s="8"/>
+      <c r="UW2" s="8"/>
+      <c r="UX2" s="8"/>
+      <c r="UY2" s="8"/>
+      <c r="UZ2" s="8"/>
+      <c r="VA2" s="8"/>
+      <c r="VB2" s="8"/>
+      <c r="VC2" s="8"/>
+      <c r="VD2" s="8"/>
+      <c r="VE2" s="8"/>
+      <c r="VF2" s="8"/>
+      <c r="VG2" s="8"/>
+      <c r="VH2" s="8"/>
+      <c r="VI2" s="8"/>
+      <c r="VJ2" s="8"/>
+      <c r="VK2" s="8"/>
+      <c r="VL2" s="8"/>
+      <c r="VM2" s="8"/>
+      <c r="VN2" s="8"/>
+      <c r="VO2" s="8"/>
+      <c r="VP2" s="8"/>
+      <c r="VQ2" s="8"/>
+      <c r="VR2" s="8"/>
+      <c r="VS2" s="8"/>
+      <c r="VT2" s="8"/>
+      <c r="VU2" s="8"/>
+      <c r="VV2" s="8"/>
+      <c r="VW2" s="8"/>
+      <c r="VX2" s="8"/>
+      <c r="VY2" s="8"/>
+      <c r="VZ2" s="8"/>
+      <c r="WA2" s="8"/>
+      <c r="WB2" s="8"/>
+      <c r="WC2" s="8"/>
+      <c r="WD2" s="8"/>
+      <c r="WE2" s="8"/>
+      <c r="WF2" s="8"/>
+      <c r="WG2" s="8"/>
+      <c r="WH2" s="8"/>
+      <c r="WI2" s="8"/>
+      <c r="WJ2" s="8"/>
+      <c r="WK2" s="8"/>
+      <c r="WL2" s="8"/>
+      <c r="WM2" s="8"/>
+      <c r="WN2" s="8"/>
+      <c r="WO2" s="8"/>
+      <c r="WP2" s="8"/>
+      <c r="WQ2" s="8"/>
+      <c r="WR2" s="8"/>
+      <c r="WS2" s="8"/>
+      <c r="WT2" s="8"/>
+      <c r="WU2" s="8"/>
+      <c r="WV2" s="8"/>
+      <c r="WW2" s="8"/>
+      <c r="WX2" s="8"/>
+      <c r="WY2" s="8"/>
+      <c r="WZ2" s="8"/>
+      <c r="XA2" s="8"/>
+      <c r="XB2" s="8"/>
+      <c r="XC2" s="8"/>
+      <c r="XD2" s="8"/>
+      <c r="XE2" s="8"/>
+      <c r="XF2" s="8"/>
+      <c r="XG2" s="8"/>
+      <c r="XH2" s="8"/>
+      <c r="XI2" s="8"/>
+      <c r="XJ2" s="8"/>
+      <c r="XK2" s="8"/>
+      <c r="XL2" s="8"/>
+      <c r="XM2" s="8"/>
+      <c r="XN2" s="8"/>
+      <c r="XO2" s="8"/>
+      <c r="XP2" s="8"/>
+      <c r="XQ2" s="8"/>
+      <c r="XR2" s="8"/>
+      <c r="XS2" s="8"/>
+      <c r="XT2" s="8"/>
+      <c r="XU2" s="8"/>
+      <c r="XV2" s="8"/>
+      <c r="XW2" s="8"/>
+      <c r="XX2" s="8"/>
+      <c r="XY2" s="8"/>
+      <c r="XZ2" s="8"/>
+      <c r="YA2" s="8"/>
+      <c r="YB2" s="8"/>
+      <c r="YC2" s="8"/>
+      <c r="YD2" s="8"/>
+      <c r="YE2" s="8"/>
+      <c r="YF2" s="8"/>
+      <c r="YG2" s="8"/>
+      <c r="YH2" s="8"/>
+      <c r="YI2" s="8"/>
+      <c r="YJ2" s="8"/>
+      <c r="YK2" s="8"/>
+      <c r="YL2" s="8"/>
+      <c r="YM2" s="8"/>
+      <c r="YN2" s="8"/>
+      <c r="YO2" s="8"/>
+      <c r="YP2" s="8"/>
+      <c r="YQ2" s="8"/>
+      <c r="YR2" s="8"/>
+      <c r="YS2" s="8"/>
+      <c r="YT2" s="8"/>
+      <c r="YU2" s="8"/>
+      <c r="YV2" s="8"/>
+      <c r="YW2" s="8"/>
+      <c r="YX2" s="8"/>
+      <c r="YY2" s="8"/>
+      <c r="YZ2" s="8"/>
+      <c r="ZA2" s="8"/>
+      <c r="ZB2" s="8"/>
+      <c r="ZC2" s="8"/>
+      <c r="ZD2" s="8"/>
+      <c r="ZE2" s="8"/>
+      <c r="ZF2" s="8"/>
+      <c r="ZG2" s="8"/>
+      <c r="ZH2" s="8"/>
+      <c r="ZI2" s="8"/>
+      <c r="ZJ2" s="8"/>
+      <c r="ZK2" s="8"/>
+      <c r="ZL2" s="8"/>
+      <c r="ZM2" s="8"/>
+      <c r="ZN2" s="8"/>
+      <c r="ZO2" s="8"/>
+      <c r="ZP2" s="8"/>
+      <c r="ZQ2" s="8"/>
+      <c r="ZR2" s="8"/>
+      <c r="ZS2" s="8"/>
+      <c r="ZT2" s="8"/>
+      <c r="ZU2" s="8"/>
+      <c r="ZV2" s="8"/>
+      <c r="ZW2" s="8"/>
+      <c r="ZX2" s="8"/>
+      <c r="ZY2" s="8"/>
+      <c r="ZZ2" s="8"/>
     </row>
     <row r="3" spans="1:702" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
+      <c r="A3" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -2161,7 +2862,7 @@
       <c r="ZZ3" s="8"/>
     </row>
     <row r="4" spans="1:702" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="9"/>
@@ -2867,7 +3568,7 @@
       <c r="ZZ4" s="10"/>
     </row>
     <row r="5" spans="1:702" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9"/>
@@ -3573,8 +4274,8 @@
       <c r="ZZ5" s="10"/>
     </row>
     <row r="6" spans="1:702" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>6</v>
+      <c r="A6" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -4279,7 +4980,7 @@
       <c r="ZZ6" s="10"/>
     </row>
     <row r="7" spans="1:702" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="9"/>
@@ -4985,8 +5686,8 @@
       <c r="ZZ7" s="10"/>
     </row>
     <row r="8" spans="1:702" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>7</v>
+      <c r="A8" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -5691,8 +6392,8 @@
       <c r="ZZ8" s="10"/>
     </row>
     <row r="9" spans="1:702" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>8</v>
+      <c r="A9" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -6397,8 +7098,8 @@
       <c r="ZZ9" s="10"/>
     </row>
     <row r="10" spans="1:702" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>9</v>
+      <c r="A10" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -7106,719 +7807,719 @@
       <c r="A11" s="13"/>
     </row>
     <row r="12" spans="1:702" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>10</v>
+      <c r="A12" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:702" s="22" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>5</v>
+    <row r="13" spans="1:702" s="21" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>4</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="21"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="21"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
-      <c r="BN13" s="21"/>
-      <c r="BO13" s="21"/>
-      <c r="BP13" s="21"/>
-      <c r="BQ13" s="21"/>
-      <c r="BR13" s="21"/>
-      <c r="BS13" s="21"/>
-      <c r="BT13" s="21"/>
-      <c r="BU13" s="21"/>
-      <c r="BV13" s="21"/>
-      <c r="BW13" s="21"/>
-      <c r="BX13" s="21"/>
-      <c r="BY13" s="21"/>
-      <c r="BZ13" s="21"/>
-      <c r="CA13" s="21"/>
-      <c r="CB13" s="21"/>
-      <c r="CC13" s="21"/>
-      <c r="CD13" s="21"/>
-      <c r="CE13" s="21"/>
-      <c r="CF13" s="21"/>
-      <c r="CG13" s="21"/>
-      <c r="CH13" s="21"/>
-      <c r="CI13" s="21"/>
-      <c r="CJ13" s="21"/>
-      <c r="CK13" s="21"/>
-      <c r="CL13" s="21"/>
-      <c r="CM13" s="21"/>
-      <c r="CN13" s="21"/>
-      <c r="CO13" s="21"/>
-      <c r="CP13" s="21"/>
-      <c r="CQ13" s="21"/>
-      <c r="CR13" s="21"/>
-      <c r="CS13" s="21"/>
-      <c r="CT13" s="21"/>
-      <c r="CU13" s="21"/>
-      <c r="CV13" s="21"/>
-      <c r="CW13" s="21"/>
-      <c r="CX13" s="21"/>
-      <c r="CY13" s="21"/>
-      <c r="CZ13" s="21"/>
-      <c r="DA13" s="21"/>
-      <c r="DB13" s="21"/>
-      <c r="DC13" s="21"/>
-      <c r="DD13" s="21"/>
-      <c r="DE13" s="21"/>
-      <c r="DF13" s="21"/>
-      <c r="DG13" s="21"/>
-      <c r="DH13" s="21"/>
-      <c r="DI13" s="21"/>
-      <c r="DJ13" s="21"/>
-      <c r="DK13" s="21"/>
-      <c r="DL13" s="21"/>
-      <c r="DM13" s="21"/>
-      <c r="DN13" s="21"/>
-      <c r="DO13" s="21"/>
-      <c r="DP13" s="21"/>
-      <c r="DQ13" s="21"/>
-      <c r="DR13" s="21"/>
-      <c r="DS13" s="21"/>
-      <c r="DT13" s="21"/>
-      <c r="DU13" s="21"/>
-      <c r="DV13" s="21"/>
-      <c r="DW13" s="21"/>
-      <c r="DX13" s="21"/>
-      <c r="DY13" s="21"/>
-      <c r="DZ13" s="21"/>
-      <c r="EA13" s="21"/>
-      <c r="EB13" s="21"/>
-      <c r="EC13" s="21"/>
-      <c r="ED13" s="21"/>
-      <c r="EE13" s="21"/>
-      <c r="EF13" s="21"/>
-      <c r="EG13" s="21"/>
-      <c r="EH13" s="21"/>
-      <c r="EI13" s="21"/>
-      <c r="EJ13" s="21"/>
-      <c r="EK13" s="21"/>
-      <c r="EL13" s="21"/>
-      <c r="EM13" s="21"/>
-      <c r="EN13" s="21"/>
-      <c r="EO13" s="21"/>
-      <c r="EP13" s="21"/>
-      <c r="EQ13" s="21"/>
-      <c r="ER13" s="21"/>
-      <c r="ES13" s="21"/>
-      <c r="ET13" s="21"/>
-      <c r="EU13" s="21"/>
-      <c r="EV13" s="21"/>
-      <c r="EW13" s="21"/>
-      <c r="EX13" s="21"/>
-      <c r="EY13" s="21"/>
-      <c r="EZ13" s="21"/>
-      <c r="FA13" s="21"/>
-      <c r="FB13" s="21"/>
-      <c r="FC13" s="21"/>
-      <c r="FD13" s="21"/>
-      <c r="FE13" s="21"/>
-      <c r="FF13" s="21"/>
-      <c r="FG13" s="21"/>
-      <c r="FH13" s="21"/>
-      <c r="FI13" s="21"/>
-      <c r="FJ13" s="21"/>
-      <c r="FK13" s="21"/>
-      <c r="FL13" s="21"/>
-      <c r="FM13" s="21"/>
-      <c r="FN13" s="21"/>
-      <c r="FO13" s="21"/>
-      <c r="FP13" s="21"/>
-      <c r="FQ13" s="21"/>
-      <c r="FR13" s="21"/>
-      <c r="FS13" s="21"/>
-      <c r="FT13" s="21"/>
-      <c r="FU13" s="21"/>
-      <c r="FV13" s="21"/>
-      <c r="FW13" s="21"/>
-      <c r="FX13" s="21"/>
-      <c r="FY13" s="21"/>
-      <c r="FZ13" s="21"/>
-      <c r="GA13" s="21"/>
-      <c r="GB13" s="21"/>
-      <c r="GC13" s="21"/>
-      <c r="GD13" s="21"/>
-      <c r="GE13" s="21"/>
-      <c r="GF13" s="21"/>
-      <c r="GG13" s="21"/>
-      <c r="GH13" s="21"/>
-      <c r="GI13" s="21"/>
-      <c r="GJ13" s="21"/>
-      <c r="GK13" s="21"/>
-      <c r="GL13" s="21"/>
-      <c r="GM13" s="21"/>
-      <c r="GN13" s="21"/>
-      <c r="GO13" s="21"/>
-      <c r="GP13" s="21"/>
-      <c r="GQ13" s="21"/>
-      <c r="GR13" s="21"/>
-      <c r="GS13" s="21"/>
-      <c r="GT13" s="21"/>
-      <c r="GU13" s="21"/>
-      <c r="GV13" s="21"/>
-      <c r="GW13" s="21"/>
-      <c r="GX13" s="21"/>
-      <c r="GY13" s="21"/>
-      <c r="GZ13" s="21"/>
-      <c r="HA13" s="21"/>
-      <c r="HB13" s="21"/>
-      <c r="HC13" s="21"/>
-      <c r="HD13" s="21"/>
-      <c r="HE13" s="21"/>
-      <c r="HF13" s="21"/>
-      <c r="HG13" s="21"/>
-      <c r="HH13" s="21"/>
-      <c r="HI13" s="21"/>
-      <c r="HJ13" s="21"/>
-      <c r="HK13" s="21"/>
-      <c r="HL13" s="21"/>
-      <c r="HM13" s="21"/>
-      <c r="HN13" s="21"/>
-      <c r="HO13" s="21"/>
-      <c r="HP13" s="21"/>
-      <c r="HQ13" s="21"/>
-      <c r="HR13" s="21"/>
-      <c r="HS13" s="21"/>
-      <c r="HT13" s="21"/>
-      <c r="HU13" s="21"/>
-      <c r="HV13" s="21"/>
-      <c r="HW13" s="21"/>
-      <c r="HX13" s="21"/>
-      <c r="HY13" s="21"/>
-      <c r="HZ13" s="21"/>
-      <c r="IA13" s="21"/>
-      <c r="IB13" s="21"/>
-      <c r="IC13" s="21"/>
-      <c r="ID13" s="21"/>
-      <c r="IE13" s="21"/>
-      <c r="IF13" s="21"/>
-      <c r="IG13" s="21"/>
-      <c r="IH13" s="21"/>
-      <c r="II13" s="21"/>
-      <c r="IJ13" s="21"/>
-      <c r="IK13" s="21"/>
-      <c r="IL13" s="21"/>
-      <c r="IM13" s="21"/>
-      <c r="IN13" s="21"/>
-      <c r="IO13" s="21"/>
-      <c r="IP13" s="21"/>
-      <c r="IQ13" s="21"/>
-      <c r="IR13" s="21"/>
-      <c r="IS13" s="21"/>
-      <c r="IT13" s="21"/>
-      <c r="IU13" s="21"/>
-      <c r="IV13" s="21"/>
-      <c r="IW13" s="21"/>
-      <c r="IX13" s="21"/>
-      <c r="IY13" s="21"/>
-      <c r="IZ13" s="21"/>
-      <c r="JA13" s="21"/>
-      <c r="JB13" s="21"/>
-      <c r="JC13" s="21"/>
-      <c r="JD13" s="21"/>
-      <c r="JE13" s="21"/>
-      <c r="JF13" s="21"/>
-      <c r="JG13" s="21"/>
-      <c r="JH13" s="21"/>
-      <c r="JI13" s="21"/>
-      <c r="JJ13" s="21"/>
-      <c r="JK13" s="21"/>
-      <c r="JL13" s="21"/>
-      <c r="JM13" s="21"/>
-      <c r="JN13" s="21"/>
-      <c r="JO13" s="21"/>
-      <c r="JP13" s="21"/>
-      <c r="JQ13" s="21"/>
-      <c r="JR13" s="21"/>
-      <c r="JS13" s="21"/>
-      <c r="JT13" s="21"/>
-      <c r="JU13" s="21"/>
-      <c r="JV13" s="21"/>
-      <c r="JW13" s="21"/>
-      <c r="JX13" s="21"/>
-      <c r="JY13" s="21"/>
-      <c r="JZ13" s="21"/>
-      <c r="KA13" s="21"/>
-      <c r="KB13" s="21"/>
-      <c r="KC13" s="21"/>
-      <c r="KD13" s="21"/>
-      <c r="KE13" s="21"/>
-      <c r="KF13" s="21"/>
-      <c r="KG13" s="21"/>
-      <c r="KH13" s="21"/>
-      <c r="KI13" s="21"/>
-      <c r="KJ13" s="21"/>
-      <c r="KK13" s="21"/>
-      <c r="KL13" s="21"/>
-      <c r="KM13" s="21"/>
-      <c r="KN13" s="21"/>
-      <c r="KO13" s="21"/>
-      <c r="KP13" s="21"/>
-      <c r="KQ13" s="21"/>
-      <c r="KR13" s="21"/>
-      <c r="KS13" s="21"/>
-      <c r="KT13" s="21"/>
-      <c r="KU13" s="21"/>
-      <c r="KV13" s="21"/>
-      <c r="KW13" s="21"/>
-      <c r="KX13" s="21"/>
-      <c r="KY13" s="21"/>
-      <c r="KZ13" s="21"/>
-      <c r="LA13" s="21"/>
-      <c r="LB13" s="21"/>
-      <c r="LC13" s="21"/>
-      <c r="LD13" s="21"/>
-      <c r="LE13" s="21"/>
-      <c r="LF13" s="21"/>
-      <c r="LG13" s="21"/>
-      <c r="LH13" s="21"/>
-      <c r="LI13" s="21"/>
-      <c r="LJ13" s="21"/>
-      <c r="LK13" s="21"/>
-      <c r="LL13" s="21"/>
-      <c r="LM13" s="21"/>
-      <c r="LN13" s="21"/>
-      <c r="LO13" s="21"/>
-      <c r="LP13" s="21"/>
-      <c r="LQ13" s="21"/>
-      <c r="LR13" s="21"/>
-      <c r="LS13" s="21"/>
-      <c r="LT13" s="21"/>
-      <c r="LU13" s="21"/>
-      <c r="LV13" s="21"/>
-      <c r="LW13" s="21"/>
-      <c r="LX13" s="21"/>
-      <c r="LY13" s="21"/>
-      <c r="LZ13" s="21"/>
-      <c r="MA13" s="21"/>
-      <c r="MB13" s="21"/>
-      <c r="MC13" s="21"/>
-      <c r="MD13" s="21"/>
-      <c r="ME13" s="21"/>
-      <c r="MF13" s="21"/>
-      <c r="MG13" s="21"/>
-      <c r="MH13" s="21"/>
-      <c r="MI13" s="21"/>
-      <c r="MJ13" s="21"/>
-      <c r="MK13" s="21"/>
-      <c r="ML13" s="21"/>
-      <c r="MM13" s="21"/>
-      <c r="MN13" s="21"/>
-      <c r="MO13" s="21"/>
-      <c r="MP13" s="21"/>
-      <c r="MQ13" s="21"/>
-      <c r="MR13" s="21"/>
-      <c r="MS13" s="21"/>
-      <c r="MT13" s="21"/>
-      <c r="MU13" s="21"/>
-      <c r="MV13" s="21"/>
-      <c r="MW13" s="21"/>
-      <c r="MX13" s="21"/>
-      <c r="MY13" s="21"/>
-      <c r="MZ13" s="21"/>
-      <c r="NA13" s="21"/>
-      <c r="NB13" s="21"/>
-      <c r="NC13" s="21"/>
-      <c r="ND13" s="21"/>
-      <c r="NE13" s="21"/>
-      <c r="NF13" s="21"/>
-      <c r="NG13" s="21"/>
-      <c r="NH13" s="21"/>
-      <c r="NI13" s="21"/>
-      <c r="NJ13" s="21"/>
-      <c r="NK13" s="21"/>
-      <c r="NL13" s="21"/>
-      <c r="NM13" s="21"/>
-      <c r="NN13" s="21"/>
-      <c r="NO13" s="21"/>
-      <c r="NP13" s="21"/>
-      <c r="NQ13" s="21"/>
-      <c r="NR13" s="21"/>
-      <c r="NS13" s="21"/>
-      <c r="NT13" s="21"/>
-      <c r="NU13" s="21"/>
-      <c r="NV13" s="21"/>
-      <c r="NW13" s="21"/>
-      <c r="NX13" s="21"/>
-      <c r="NY13" s="21"/>
-      <c r="NZ13" s="21"/>
-      <c r="OA13" s="21"/>
-      <c r="OB13" s="21"/>
-      <c r="OC13" s="21"/>
-      <c r="OD13" s="21"/>
-      <c r="OE13" s="21"/>
-      <c r="OF13" s="21"/>
-      <c r="OG13" s="21"/>
-      <c r="OH13" s="21"/>
-      <c r="OI13" s="21"/>
-      <c r="OJ13" s="21"/>
-      <c r="OK13" s="21"/>
-      <c r="OL13" s="21"/>
-      <c r="OM13" s="21"/>
-      <c r="ON13" s="21"/>
-      <c r="OO13" s="21"/>
-      <c r="OP13" s="21"/>
-      <c r="OQ13" s="21"/>
-      <c r="OR13" s="21"/>
-      <c r="OS13" s="21"/>
-      <c r="OT13" s="21"/>
-      <c r="OU13" s="21"/>
-      <c r="OV13" s="21"/>
-      <c r="OW13" s="21"/>
-      <c r="OX13" s="21"/>
-      <c r="OY13" s="21"/>
-      <c r="OZ13" s="21"/>
-      <c r="PA13" s="21"/>
-      <c r="PB13" s="21"/>
-      <c r="PC13" s="21"/>
-      <c r="PD13" s="21"/>
-      <c r="PE13" s="21"/>
-      <c r="PF13" s="21"/>
-      <c r="PG13" s="21"/>
-      <c r="PH13" s="21"/>
-      <c r="PI13" s="21"/>
-      <c r="PJ13" s="21"/>
-      <c r="PK13" s="21"/>
-      <c r="PL13" s="21"/>
-      <c r="PM13" s="21"/>
-      <c r="PN13" s="21"/>
-      <c r="PO13" s="21"/>
-      <c r="PP13" s="21"/>
-      <c r="PQ13" s="21"/>
-      <c r="PR13" s="21"/>
-      <c r="PS13" s="21"/>
-      <c r="PT13" s="21"/>
-      <c r="PU13" s="21"/>
-      <c r="PV13" s="21"/>
-      <c r="PW13" s="21"/>
-      <c r="PX13" s="21"/>
-      <c r="PY13" s="21"/>
-      <c r="PZ13" s="21"/>
-      <c r="QA13" s="21"/>
-      <c r="QB13" s="21"/>
-      <c r="QC13" s="21"/>
-      <c r="QD13" s="21"/>
-      <c r="QE13" s="21"/>
-      <c r="QF13" s="21"/>
-      <c r="QG13" s="21"/>
-      <c r="QH13" s="21"/>
-      <c r="QI13" s="21"/>
-      <c r="QJ13" s="21"/>
-      <c r="QK13" s="21"/>
-      <c r="QL13" s="21"/>
-      <c r="QM13" s="21"/>
-      <c r="QN13" s="21"/>
-      <c r="QO13" s="21"/>
-      <c r="QP13" s="21"/>
-      <c r="QQ13" s="21"/>
-      <c r="QR13" s="21"/>
-      <c r="QS13" s="21"/>
-      <c r="QT13" s="21"/>
-      <c r="QU13" s="21"/>
-      <c r="QV13" s="21"/>
-      <c r="QW13" s="21"/>
-      <c r="QX13" s="21"/>
-      <c r="QY13" s="21"/>
-      <c r="QZ13" s="21"/>
-      <c r="RA13" s="21"/>
-      <c r="RB13" s="21"/>
-      <c r="RC13" s="21"/>
-      <c r="RD13" s="21"/>
-      <c r="RE13" s="21"/>
-      <c r="RF13" s="21"/>
-      <c r="RG13" s="21"/>
-      <c r="RH13" s="21"/>
-      <c r="RI13" s="21"/>
-      <c r="RJ13" s="21"/>
-      <c r="RK13" s="21"/>
-      <c r="RL13" s="21"/>
-      <c r="RM13" s="21"/>
-      <c r="RN13" s="21"/>
-      <c r="RO13" s="21"/>
-      <c r="RP13" s="21"/>
-      <c r="RQ13" s="21"/>
-      <c r="RR13" s="21"/>
-      <c r="RS13" s="21"/>
-      <c r="RT13" s="21"/>
-      <c r="RU13" s="21"/>
-      <c r="RV13" s="21"/>
-      <c r="RW13" s="21"/>
-      <c r="RX13" s="21"/>
-      <c r="RY13" s="21"/>
-      <c r="RZ13" s="21"/>
-      <c r="SA13" s="21"/>
-      <c r="SB13" s="21"/>
-      <c r="SC13" s="21"/>
-      <c r="SD13" s="21"/>
-      <c r="SE13" s="21"/>
-      <c r="SF13" s="21"/>
-      <c r="SG13" s="21"/>
-      <c r="SH13" s="21"/>
-      <c r="SI13" s="21"/>
-      <c r="SJ13" s="21"/>
-      <c r="SK13" s="21"/>
-      <c r="SL13" s="21"/>
-      <c r="SM13" s="21"/>
-      <c r="SN13" s="21"/>
-      <c r="SO13" s="21"/>
-      <c r="SP13" s="21"/>
-      <c r="SQ13" s="21"/>
-      <c r="SR13" s="21"/>
-      <c r="SS13" s="21"/>
-      <c r="ST13" s="21"/>
-      <c r="SU13" s="21"/>
-      <c r="SV13" s="21"/>
-      <c r="SW13" s="21"/>
-      <c r="SX13" s="21"/>
-      <c r="SY13" s="21"/>
-      <c r="SZ13" s="21"/>
-      <c r="TA13" s="21"/>
-      <c r="TB13" s="21"/>
-      <c r="TC13" s="21"/>
-      <c r="TD13" s="21"/>
-      <c r="TE13" s="21"/>
-      <c r="TF13" s="21"/>
-      <c r="TG13" s="21"/>
-      <c r="TH13" s="21"/>
-      <c r="TI13" s="21"/>
-      <c r="TJ13" s="21"/>
-      <c r="TK13" s="21"/>
-      <c r="TL13" s="21"/>
-      <c r="TM13" s="21"/>
-      <c r="TN13" s="21"/>
-      <c r="TO13" s="21"/>
-      <c r="TP13" s="21"/>
-      <c r="TQ13" s="21"/>
-      <c r="TR13" s="21"/>
-      <c r="TS13" s="21"/>
-      <c r="TT13" s="21"/>
-      <c r="TU13" s="21"/>
-      <c r="TV13" s="21"/>
-      <c r="TW13" s="21"/>
-      <c r="TX13" s="21"/>
-      <c r="TY13" s="21"/>
-      <c r="TZ13" s="21"/>
-      <c r="UA13" s="21"/>
-      <c r="UB13" s="21"/>
-      <c r="UC13" s="21"/>
-      <c r="UD13" s="21"/>
-      <c r="UE13" s="21"/>
-      <c r="UF13" s="21"/>
-      <c r="UG13" s="21"/>
-      <c r="UH13" s="21"/>
-      <c r="UI13" s="21"/>
-      <c r="UJ13" s="21"/>
-      <c r="UK13" s="21"/>
-      <c r="UL13" s="21"/>
-      <c r="UM13" s="21"/>
-      <c r="UN13" s="21"/>
-      <c r="UO13" s="21"/>
-      <c r="UP13" s="21"/>
-      <c r="UQ13" s="21"/>
-      <c r="UR13" s="21"/>
-      <c r="US13" s="21"/>
-      <c r="UT13" s="21"/>
-      <c r="UU13" s="21"/>
-      <c r="UV13" s="21"/>
-      <c r="UW13" s="21"/>
-      <c r="UX13" s="21"/>
-      <c r="UY13" s="21"/>
-      <c r="UZ13" s="21"/>
-      <c r="VA13" s="21"/>
-      <c r="VB13" s="21"/>
-      <c r="VC13" s="21"/>
-      <c r="VD13" s="21"/>
-      <c r="VE13" s="21"/>
-      <c r="VF13" s="21"/>
-      <c r="VG13" s="21"/>
-      <c r="VH13" s="21"/>
-      <c r="VI13" s="21"/>
-      <c r="VJ13" s="21"/>
-      <c r="VK13" s="21"/>
-      <c r="VL13" s="21"/>
-      <c r="VM13" s="21"/>
-      <c r="VN13" s="21"/>
-      <c r="VO13" s="21"/>
-      <c r="VP13" s="21"/>
-      <c r="VQ13" s="21"/>
-      <c r="VR13" s="21"/>
-      <c r="VS13" s="21"/>
-      <c r="VT13" s="21"/>
-      <c r="VU13" s="21"/>
-      <c r="VV13" s="21"/>
-      <c r="VW13" s="21"/>
-      <c r="VX13" s="21"/>
-      <c r="VY13" s="21"/>
-      <c r="VZ13" s="21"/>
-      <c r="WA13" s="21"/>
-      <c r="WB13" s="21"/>
-      <c r="WC13" s="21"/>
-      <c r="WD13" s="21"/>
-      <c r="WE13" s="21"/>
-      <c r="WF13" s="21"/>
-      <c r="WG13" s="21"/>
-      <c r="WH13" s="21"/>
-      <c r="WI13" s="21"/>
-      <c r="WJ13" s="21"/>
-      <c r="WK13" s="21"/>
-      <c r="WL13" s="21"/>
-      <c r="WM13" s="21"/>
-      <c r="WN13" s="21"/>
-      <c r="WO13" s="21"/>
-      <c r="WP13" s="21"/>
-      <c r="WQ13" s="21"/>
-      <c r="WR13" s="21"/>
-      <c r="WS13" s="21"/>
-      <c r="WT13" s="21"/>
-      <c r="WU13" s="21"/>
-      <c r="WV13" s="21"/>
-      <c r="WW13" s="21"/>
-      <c r="WX13" s="21"/>
-      <c r="WY13" s="21"/>
-      <c r="WZ13" s="21"/>
-      <c r="XA13" s="21"/>
-      <c r="XB13" s="21"/>
-      <c r="XC13" s="21"/>
-      <c r="XD13" s="21"/>
-      <c r="XE13" s="21"/>
-      <c r="XF13" s="21"/>
-      <c r="XG13" s="21"/>
-      <c r="XH13" s="21"/>
-      <c r="XI13" s="21"/>
-      <c r="XJ13" s="21"/>
-      <c r="XK13" s="21"/>
-      <c r="XL13" s="21"/>
-      <c r="XM13" s="21"/>
-      <c r="XN13" s="21"/>
-      <c r="XO13" s="21"/>
-      <c r="XP13" s="21"/>
-      <c r="XQ13" s="21"/>
-      <c r="XR13" s="21"/>
-      <c r="XS13" s="21"/>
-      <c r="XT13" s="21"/>
-      <c r="XU13" s="21"/>
-      <c r="XV13" s="21"/>
-      <c r="XW13" s="21"/>
-      <c r="XX13" s="21"/>
-      <c r="XY13" s="21"/>
-      <c r="XZ13" s="21"/>
-      <c r="YA13" s="21"/>
-      <c r="YB13" s="21"/>
-      <c r="YC13" s="21"/>
-      <c r="YD13" s="21"/>
-      <c r="YE13" s="21"/>
-      <c r="YF13" s="21"/>
-      <c r="YG13" s="21"/>
-      <c r="YH13" s="21"/>
-      <c r="YI13" s="21"/>
-      <c r="YJ13" s="21"/>
-      <c r="YK13" s="21"/>
-      <c r="YL13" s="21"/>
-      <c r="YM13" s="21"/>
-      <c r="YN13" s="21"/>
-      <c r="YO13" s="21"/>
-      <c r="YP13" s="21"/>
-      <c r="YQ13" s="21"/>
-      <c r="YR13" s="21"/>
-      <c r="YS13" s="21"/>
-      <c r="YT13" s="21"/>
-      <c r="YU13" s="21"/>
-      <c r="YV13" s="21"/>
-      <c r="YW13" s="21"/>
-      <c r="YX13" s="21"/>
-      <c r="YY13" s="21"/>
-      <c r="YZ13" s="21"/>
-      <c r="ZA13" s="21"/>
-      <c r="ZB13" s="21"/>
-      <c r="ZC13" s="21"/>
-      <c r="ZD13" s="21"/>
-      <c r="ZE13" s="21"/>
-      <c r="ZF13" s="21"/>
-      <c r="ZG13" s="21"/>
-      <c r="ZH13" s="21"/>
-      <c r="ZI13" s="21"/>
-      <c r="ZJ13" s="21"/>
-      <c r="ZK13" s="21"/>
-      <c r="ZL13" s="21"/>
-      <c r="ZM13" s="21"/>
-      <c r="ZN13" s="21"/>
-      <c r="ZO13" s="21"/>
-      <c r="ZP13" s="21"/>
-      <c r="ZQ13" s="21"/>
-      <c r="ZR13" s="21"/>
-      <c r="ZS13" s="21"/>
-      <c r="ZT13" s="21"/>
-      <c r="ZU13" s="21"/>
-      <c r="ZV13" s="21"/>
-      <c r="ZW13" s="21"/>
-      <c r="ZX13" s="21"/>
-      <c r="ZY13" s="21"/>
-      <c r="ZZ13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="20"/>
+      <c r="BR13" s="20"/>
+      <c r="BS13" s="20"/>
+      <c r="BT13" s="20"/>
+      <c r="BU13" s="20"/>
+      <c r="BV13" s="20"/>
+      <c r="BW13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
+      <c r="CA13" s="20"/>
+      <c r="CB13" s="20"/>
+      <c r="CC13" s="20"/>
+      <c r="CD13" s="20"/>
+      <c r="CE13" s="20"/>
+      <c r="CF13" s="20"/>
+      <c r="CG13" s="20"/>
+      <c r="CH13" s="20"/>
+      <c r="CI13" s="20"/>
+      <c r="CJ13" s="20"/>
+      <c r="CK13" s="20"/>
+      <c r="CL13" s="20"/>
+      <c r="CM13" s="20"/>
+      <c r="CN13" s="20"/>
+      <c r="CO13" s="20"/>
+      <c r="CP13" s="20"/>
+      <c r="CQ13" s="20"/>
+      <c r="CR13" s="20"/>
+      <c r="CS13" s="20"/>
+      <c r="CT13" s="20"/>
+      <c r="CU13" s="20"/>
+      <c r="CV13" s="20"/>
+      <c r="CW13" s="20"/>
+      <c r="CX13" s="20"/>
+      <c r="CY13" s="20"/>
+      <c r="CZ13" s="20"/>
+      <c r="DA13" s="20"/>
+      <c r="DB13" s="20"/>
+      <c r="DC13" s="20"/>
+      <c r="DD13" s="20"/>
+      <c r="DE13" s="20"/>
+      <c r="DF13" s="20"/>
+      <c r="DG13" s="20"/>
+      <c r="DH13" s="20"/>
+      <c r="DI13" s="20"/>
+      <c r="DJ13" s="20"/>
+      <c r="DK13" s="20"/>
+      <c r="DL13" s="20"/>
+      <c r="DM13" s="20"/>
+      <c r="DN13" s="20"/>
+      <c r="DO13" s="20"/>
+      <c r="DP13" s="20"/>
+      <c r="DQ13" s="20"/>
+      <c r="DR13" s="20"/>
+      <c r="DS13" s="20"/>
+      <c r="DT13" s="20"/>
+      <c r="DU13" s="20"/>
+      <c r="DV13" s="20"/>
+      <c r="DW13" s="20"/>
+      <c r="DX13" s="20"/>
+      <c r="DY13" s="20"/>
+      <c r="DZ13" s="20"/>
+      <c r="EA13" s="20"/>
+      <c r="EB13" s="20"/>
+      <c r="EC13" s="20"/>
+      <c r="ED13" s="20"/>
+      <c r="EE13" s="20"/>
+      <c r="EF13" s="20"/>
+      <c r="EG13" s="20"/>
+      <c r="EH13" s="20"/>
+      <c r="EI13" s="20"/>
+      <c r="EJ13" s="20"/>
+      <c r="EK13" s="20"/>
+      <c r="EL13" s="20"/>
+      <c r="EM13" s="20"/>
+      <c r="EN13" s="20"/>
+      <c r="EO13" s="20"/>
+      <c r="EP13" s="20"/>
+      <c r="EQ13" s="20"/>
+      <c r="ER13" s="20"/>
+      <c r="ES13" s="20"/>
+      <c r="ET13" s="20"/>
+      <c r="EU13" s="20"/>
+      <c r="EV13" s="20"/>
+      <c r="EW13" s="20"/>
+      <c r="EX13" s="20"/>
+      <c r="EY13" s="20"/>
+      <c r="EZ13" s="20"/>
+      <c r="FA13" s="20"/>
+      <c r="FB13" s="20"/>
+      <c r="FC13" s="20"/>
+      <c r="FD13" s="20"/>
+      <c r="FE13" s="20"/>
+      <c r="FF13" s="20"/>
+      <c r="FG13" s="20"/>
+      <c r="FH13" s="20"/>
+      <c r="FI13" s="20"/>
+      <c r="FJ13" s="20"/>
+      <c r="FK13" s="20"/>
+      <c r="FL13" s="20"/>
+      <c r="FM13" s="20"/>
+      <c r="FN13" s="20"/>
+      <c r="FO13" s="20"/>
+      <c r="FP13" s="20"/>
+      <c r="FQ13" s="20"/>
+      <c r="FR13" s="20"/>
+      <c r="FS13" s="20"/>
+      <c r="FT13" s="20"/>
+      <c r="FU13" s="20"/>
+      <c r="FV13" s="20"/>
+      <c r="FW13" s="20"/>
+      <c r="FX13" s="20"/>
+      <c r="FY13" s="20"/>
+      <c r="FZ13" s="20"/>
+      <c r="GA13" s="20"/>
+      <c r="GB13" s="20"/>
+      <c r="GC13" s="20"/>
+      <c r="GD13" s="20"/>
+      <c r="GE13" s="20"/>
+      <c r="GF13" s="20"/>
+      <c r="GG13" s="20"/>
+      <c r="GH13" s="20"/>
+      <c r="GI13" s="20"/>
+      <c r="GJ13" s="20"/>
+      <c r="GK13" s="20"/>
+      <c r="GL13" s="20"/>
+      <c r="GM13" s="20"/>
+      <c r="GN13" s="20"/>
+      <c r="GO13" s="20"/>
+      <c r="GP13" s="20"/>
+      <c r="GQ13" s="20"/>
+      <c r="GR13" s="20"/>
+      <c r="GS13" s="20"/>
+      <c r="GT13" s="20"/>
+      <c r="GU13" s="20"/>
+      <c r="GV13" s="20"/>
+      <c r="GW13" s="20"/>
+      <c r="GX13" s="20"/>
+      <c r="GY13" s="20"/>
+      <c r="GZ13" s="20"/>
+      <c r="HA13" s="20"/>
+      <c r="HB13" s="20"/>
+      <c r="HC13" s="20"/>
+      <c r="HD13" s="20"/>
+      <c r="HE13" s="20"/>
+      <c r="HF13" s="20"/>
+      <c r="HG13" s="20"/>
+      <c r="HH13" s="20"/>
+      <c r="HI13" s="20"/>
+      <c r="HJ13" s="20"/>
+      <c r="HK13" s="20"/>
+      <c r="HL13" s="20"/>
+      <c r="HM13" s="20"/>
+      <c r="HN13" s="20"/>
+      <c r="HO13" s="20"/>
+      <c r="HP13" s="20"/>
+      <c r="HQ13" s="20"/>
+      <c r="HR13" s="20"/>
+      <c r="HS13" s="20"/>
+      <c r="HT13" s="20"/>
+      <c r="HU13" s="20"/>
+      <c r="HV13" s="20"/>
+      <c r="HW13" s="20"/>
+      <c r="HX13" s="20"/>
+      <c r="HY13" s="20"/>
+      <c r="HZ13" s="20"/>
+      <c r="IA13" s="20"/>
+      <c r="IB13" s="20"/>
+      <c r="IC13" s="20"/>
+      <c r="ID13" s="20"/>
+      <c r="IE13" s="20"/>
+      <c r="IF13" s="20"/>
+      <c r="IG13" s="20"/>
+      <c r="IH13" s="20"/>
+      <c r="II13" s="20"/>
+      <c r="IJ13" s="20"/>
+      <c r="IK13" s="20"/>
+      <c r="IL13" s="20"/>
+      <c r="IM13" s="20"/>
+      <c r="IN13" s="20"/>
+      <c r="IO13" s="20"/>
+      <c r="IP13" s="20"/>
+      <c r="IQ13" s="20"/>
+      <c r="IR13" s="20"/>
+      <c r="IS13" s="20"/>
+      <c r="IT13" s="20"/>
+      <c r="IU13" s="20"/>
+      <c r="IV13" s="20"/>
+      <c r="IW13" s="20"/>
+      <c r="IX13" s="20"/>
+      <c r="IY13" s="20"/>
+      <c r="IZ13" s="20"/>
+      <c r="JA13" s="20"/>
+      <c r="JB13" s="20"/>
+      <c r="JC13" s="20"/>
+      <c r="JD13" s="20"/>
+      <c r="JE13" s="20"/>
+      <c r="JF13" s="20"/>
+      <c r="JG13" s="20"/>
+      <c r="JH13" s="20"/>
+      <c r="JI13" s="20"/>
+      <c r="JJ13" s="20"/>
+      <c r="JK13" s="20"/>
+      <c r="JL13" s="20"/>
+      <c r="JM13" s="20"/>
+      <c r="JN13" s="20"/>
+      <c r="JO13" s="20"/>
+      <c r="JP13" s="20"/>
+      <c r="JQ13" s="20"/>
+      <c r="JR13" s="20"/>
+      <c r="JS13" s="20"/>
+      <c r="JT13" s="20"/>
+      <c r="JU13" s="20"/>
+      <c r="JV13" s="20"/>
+      <c r="JW13" s="20"/>
+      <c r="JX13" s="20"/>
+      <c r="JY13" s="20"/>
+      <c r="JZ13" s="20"/>
+      <c r="KA13" s="20"/>
+      <c r="KB13" s="20"/>
+      <c r="KC13" s="20"/>
+      <c r="KD13" s="20"/>
+      <c r="KE13" s="20"/>
+      <c r="KF13" s="20"/>
+      <c r="KG13" s="20"/>
+      <c r="KH13" s="20"/>
+      <c r="KI13" s="20"/>
+      <c r="KJ13" s="20"/>
+      <c r="KK13" s="20"/>
+      <c r="KL13" s="20"/>
+      <c r="KM13" s="20"/>
+      <c r="KN13" s="20"/>
+      <c r="KO13" s="20"/>
+      <c r="KP13" s="20"/>
+      <c r="KQ13" s="20"/>
+      <c r="KR13" s="20"/>
+      <c r="KS13" s="20"/>
+      <c r="KT13" s="20"/>
+      <c r="KU13" s="20"/>
+      <c r="KV13" s="20"/>
+      <c r="KW13" s="20"/>
+      <c r="KX13" s="20"/>
+      <c r="KY13" s="20"/>
+      <c r="KZ13" s="20"/>
+      <c r="LA13" s="20"/>
+      <c r="LB13" s="20"/>
+      <c r="LC13" s="20"/>
+      <c r="LD13" s="20"/>
+      <c r="LE13" s="20"/>
+      <c r="LF13" s="20"/>
+      <c r="LG13" s="20"/>
+      <c r="LH13" s="20"/>
+      <c r="LI13" s="20"/>
+      <c r="LJ13" s="20"/>
+      <c r="LK13" s="20"/>
+      <c r="LL13" s="20"/>
+      <c r="LM13" s="20"/>
+      <c r="LN13" s="20"/>
+      <c r="LO13" s="20"/>
+      <c r="LP13" s="20"/>
+      <c r="LQ13" s="20"/>
+      <c r="LR13" s="20"/>
+      <c r="LS13" s="20"/>
+      <c r="LT13" s="20"/>
+      <c r="LU13" s="20"/>
+      <c r="LV13" s="20"/>
+      <c r="LW13" s="20"/>
+      <c r="LX13" s="20"/>
+      <c r="LY13" s="20"/>
+      <c r="LZ13" s="20"/>
+      <c r="MA13" s="20"/>
+      <c r="MB13" s="20"/>
+      <c r="MC13" s="20"/>
+      <c r="MD13" s="20"/>
+      <c r="ME13" s="20"/>
+      <c r="MF13" s="20"/>
+      <c r="MG13" s="20"/>
+      <c r="MH13" s="20"/>
+      <c r="MI13" s="20"/>
+      <c r="MJ13" s="20"/>
+      <c r="MK13" s="20"/>
+      <c r="ML13" s="20"/>
+      <c r="MM13" s="20"/>
+      <c r="MN13" s="20"/>
+      <c r="MO13" s="20"/>
+      <c r="MP13" s="20"/>
+      <c r="MQ13" s="20"/>
+      <c r="MR13" s="20"/>
+      <c r="MS13" s="20"/>
+      <c r="MT13" s="20"/>
+      <c r="MU13" s="20"/>
+      <c r="MV13" s="20"/>
+      <c r="MW13" s="20"/>
+      <c r="MX13" s="20"/>
+      <c r="MY13" s="20"/>
+      <c r="MZ13" s="20"/>
+      <c r="NA13" s="20"/>
+      <c r="NB13" s="20"/>
+      <c r="NC13" s="20"/>
+      <c r="ND13" s="20"/>
+      <c r="NE13" s="20"/>
+      <c r="NF13" s="20"/>
+      <c r="NG13" s="20"/>
+      <c r="NH13" s="20"/>
+      <c r="NI13" s="20"/>
+      <c r="NJ13" s="20"/>
+      <c r="NK13" s="20"/>
+      <c r="NL13" s="20"/>
+      <c r="NM13" s="20"/>
+      <c r="NN13" s="20"/>
+      <c r="NO13" s="20"/>
+      <c r="NP13" s="20"/>
+      <c r="NQ13" s="20"/>
+      <c r="NR13" s="20"/>
+      <c r="NS13" s="20"/>
+      <c r="NT13" s="20"/>
+      <c r="NU13" s="20"/>
+      <c r="NV13" s="20"/>
+      <c r="NW13" s="20"/>
+      <c r="NX13" s="20"/>
+      <c r="NY13" s="20"/>
+      <c r="NZ13" s="20"/>
+      <c r="OA13" s="20"/>
+      <c r="OB13" s="20"/>
+      <c r="OC13" s="20"/>
+      <c r="OD13" s="20"/>
+      <c r="OE13" s="20"/>
+      <c r="OF13" s="20"/>
+      <c r="OG13" s="20"/>
+      <c r="OH13" s="20"/>
+      <c r="OI13" s="20"/>
+      <c r="OJ13" s="20"/>
+      <c r="OK13" s="20"/>
+      <c r="OL13" s="20"/>
+      <c r="OM13" s="20"/>
+      <c r="ON13" s="20"/>
+      <c r="OO13" s="20"/>
+      <c r="OP13" s="20"/>
+      <c r="OQ13" s="20"/>
+      <c r="OR13" s="20"/>
+      <c r="OS13" s="20"/>
+      <c r="OT13" s="20"/>
+      <c r="OU13" s="20"/>
+      <c r="OV13" s="20"/>
+      <c r="OW13" s="20"/>
+      <c r="OX13" s="20"/>
+      <c r="OY13" s="20"/>
+      <c r="OZ13" s="20"/>
+      <c r="PA13" s="20"/>
+      <c r="PB13" s="20"/>
+      <c r="PC13" s="20"/>
+      <c r="PD13" s="20"/>
+      <c r="PE13" s="20"/>
+      <c r="PF13" s="20"/>
+      <c r="PG13" s="20"/>
+      <c r="PH13" s="20"/>
+      <c r="PI13" s="20"/>
+      <c r="PJ13" s="20"/>
+      <c r="PK13" s="20"/>
+      <c r="PL13" s="20"/>
+      <c r="PM13" s="20"/>
+      <c r="PN13" s="20"/>
+      <c r="PO13" s="20"/>
+      <c r="PP13" s="20"/>
+      <c r="PQ13" s="20"/>
+      <c r="PR13" s="20"/>
+      <c r="PS13" s="20"/>
+      <c r="PT13" s="20"/>
+      <c r="PU13" s="20"/>
+      <c r="PV13" s="20"/>
+      <c r="PW13" s="20"/>
+      <c r="PX13" s="20"/>
+      <c r="PY13" s="20"/>
+      <c r="PZ13" s="20"/>
+      <c r="QA13" s="20"/>
+      <c r="QB13" s="20"/>
+      <c r="QC13" s="20"/>
+      <c r="QD13" s="20"/>
+      <c r="QE13" s="20"/>
+      <c r="QF13" s="20"/>
+      <c r="QG13" s="20"/>
+      <c r="QH13" s="20"/>
+      <c r="QI13" s="20"/>
+      <c r="QJ13" s="20"/>
+      <c r="QK13" s="20"/>
+      <c r="QL13" s="20"/>
+      <c r="QM13" s="20"/>
+      <c r="QN13" s="20"/>
+      <c r="QO13" s="20"/>
+      <c r="QP13" s="20"/>
+      <c r="QQ13" s="20"/>
+      <c r="QR13" s="20"/>
+      <c r="QS13" s="20"/>
+      <c r="QT13" s="20"/>
+      <c r="QU13" s="20"/>
+      <c r="QV13" s="20"/>
+      <c r="QW13" s="20"/>
+      <c r="QX13" s="20"/>
+      <c r="QY13" s="20"/>
+      <c r="QZ13" s="20"/>
+      <c r="RA13" s="20"/>
+      <c r="RB13" s="20"/>
+      <c r="RC13" s="20"/>
+      <c r="RD13" s="20"/>
+      <c r="RE13" s="20"/>
+      <c r="RF13" s="20"/>
+      <c r="RG13" s="20"/>
+      <c r="RH13" s="20"/>
+      <c r="RI13" s="20"/>
+      <c r="RJ13" s="20"/>
+      <c r="RK13" s="20"/>
+      <c r="RL13" s="20"/>
+      <c r="RM13" s="20"/>
+      <c r="RN13" s="20"/>
+      <c r="RO13" s="20"/>
+      <c r="RP13" s="20"/>
+      <c r="RQ13" s="20"/>
+      <c r="RR13" s="20"/>
+      <c r="RS13" s="20"/>
+      <c r="RT13" s="20"/>
+      <c r="RU13" s="20"/>
+      <c r="RV13" s="20"/>
+      <c r="RW13" s="20"/>
+      <c r="RX13" s="20"/>
+      <c r="RY13" s="20"/>
+      <c r="RZ13" s="20"/>
+      <c r="SA13" s="20"/>
+      <c r="SB13" s="20"/>
+      <c r="SC13" s="20"/>
+      <c r="SD13" s="20"/>
+      <c r="SE13" s="20"/>
+      <c r="SF13" s="20"/>
+      <c r="SG13" s="20"/>
+      <c r="SH13" s="20"/>
+      <c r="SI13" s="20"/>
+      <c r="SJ13" s="20"/>
+      <c r="SK13" s="20"/>
+      <c r="SL13" s="20"/>
+      <c r="SM13" s="20"/>
+      <c r="SN13" s="20"/>
+      <c r="SO13" s="20"/>
+      <c r="SP13" s="20"/>
+      <c r="SQ13" s="20"/>
+      <c r="SR13" s="20"/>
+      <c r="SS13" s="20"/>
+      <c r="ST13" s="20"/>
+      <c r="SU13" s="20"/>
+      <c r="SV13" s="20"/>
+      <c r="SW13" s="20"/>
+      <c r="SX13" s="20"/>
+      <c r="SY13" s="20"/>
+      <c r="SZ13" s="20"/>
+      <c r="TA13" s="20"/>
+      <c r="TB13" s="20"/>
+      <c r="TC13" s="20"/>
+      <c r="TD13" s="20"/>
+      <c r="TE13" s="20"/>
+      <c r="TF13" s="20"/>
+      <c r="TG13" s="20"/>
+      <c r="TH13" s="20"/>
+      <c r="TI13" s="20"/>
+      <c r="TJ13" s="20"/>
+      <c r="TK13" s="20"/>
+      <c r="TL13" s="20"/>
+      <c r="TM13" s="20"/>
+      <c r="TN13" s="20"/>
+      <c r="TO13" s="20"/>
+      <c r="TP13" s="20"/>
+      <c r="TQ13" s="20"/>
+      <c r="TR13" s="20"/>
+      <c r="TS13" s="20"/>
+      <c r="TT13" s="20"/>
+      <c r="TU13" s="20"/>
+      <c r="TV13" s="20"/>
+      <c r="TW13" s="20"/>
+      <c r="TX13" s="20"/>
+      <c r="TY13" s="20"/>
+      <c r="TZ13" s="20"/>
+      <c r="UA13" s="20"/>
+      <c r="UB13" s="20"/>
+      <c r="UC13" s="20"/>
+      <c r="UD13" s="20"/>
+      <c r="UE13" s="20"/>
+      <c r="UF13" s="20"/>
+      <c r="UG13" s="20"/>
+      <c r="UH13" s="20"/>
+      <c r="UI13" s="20"/>
+      <c r="UJ13" s="20"/>
+      <c r="UK13" s="20"/>
+      <c r="UL13" s="20"/>
+      <c r="UM13" s="20"/>
+      <c r="UN13" s="20"/>
+      <c r="UO13" s="20"/>
+      <c r="UP13" s="20"/>
+      <c r="UQ13" s="20"/>
+      <c r="UR13" s="20"/>
+      <c r="US13" s="20"/>
+      <c r="UT13" s="20"/>
+      <c r="UU13" s="20"/>
+      <c r="UV13" s="20"/>
+      <c r="UW13" s="20"/>
+      <c r="UX13" s="20"/>
+      <c r="UY13" s="20"/>
+      <c r="UZ13" s="20"/>
+      <c r="VA13" s="20"/>
+      <c r="VB13" s="20"/>
+      <c r="VC13" s="20"/>
+      <c r="VD13" s="20"/>
+      <c r="VE13" s="20"/>
+      <c r="VF13" s="20"/>
+      <c r="VG13" s="20"/>
+      <c r="VH13" s="20"/>
+      <c r="VI13" s="20"/>
+      <c r="VJ13" s="20"/>
+      <c r="VK13" s="20"/>
+      <c r="VL13" s="20"/>
+      <c r="VM13" s="20"/>
+      <c r="VN13" s="20"/>
+      <c r="VO13" s="20"/>
+      <c r="VP13" s="20"/>
+      <c r="VQ13" s="20"/>
+      <c r="VR13" s="20"/>
+      <c r="VS13" s="20"/>
+      <c r="VT13" s="20"/>
+      <c r="VU13" s="20"/>
+      <c r="VV13" s="20"/>
+      <c r="VW13" s="20"/>
+      <c r="VX13" s="20"/>
+      <c r="VY13" s="20"/>
+      <c r="VZ13" s="20"/>
+      <c r="WA13" s="20"/>
+      <c r="WB13" s="20"/>
+      <c r="WC13" s="20"/>
+      <c r="WD13" s="20"/>
+      <c r="WE13" s="20"/>
+      <c r="WF13" s="20"/>
+      <c r="WG13" s="20"/>
+      <c r="WH13" s="20"/>
+      <c r="WI13" s="20"/>
+      <c r="WJ13" s="20"/>
+      <c r="WK13" s="20"/>
+      <c r="WL13" s="20"/>
+      <c r="WM13" s="20"/>
+      <c r="WN13" s="20"/>
+      <c r="WO13" s="20"/>
+      <c r="WP13" s="20"/>
+      <c r="WQ13" s="20"/>
+      <c r="WR13" s="20"/>
+      <c r="WS13" s="20"/>
+      <c r="WT13" s="20"/>
+      <c r="WU13" s="20"/>
+      <c r="WV13" s="20"/>
+      <c r="WW13" s="20"/>
+      <c r="WX13" s="20"/>
+      <c r="WY13" s="20"/>
+      <c r="WZ13" s="20"/>
+      <c r="XA13" s="20"/>
+      <c r="XB13" s="20"/>
+      <c r="XC13" s="20"/>
+      <c r="XD13" s="20"/>
+      <c r="XE13" s="20"/>
+      <c r="XF13" s="20"/>
+      <c r="XG13" s="20"/>
+      <c r="XH13" s="20"/>
+      <c r="XI13" s="20"/>
+      <c r="XJ13" s="20"/>
+      <c r="XK13" s="20"/>
+      <c r="XL13" s="20"/>
+      <c r="XM13" s="20"/>
+      <c r="XN13" s="20"/>
+      <c r="XO13" s="20"/>
+      <c r="XP13" s="20"/>
+      <c r="XQ13" s="20"/>
+      <c r="XR13" s="20"/>
+      <c r="XS13" s="20"/>
+      <c r="XT13" s="20"/>
+      <c r="XU13" s="20"/>
+      <c r="XV13" s="20"/>
+      <c r="XW13" s="20"/>
+      <c r="XX13" s="20"/>
+      <c r="XY13" s="20"/>
+      <c r="XZ13" s="20"/>
+      <c r="YA13" s="20"/>
+      <c r="YB13" s="20"/>
+      <c r="YC13" s="20"/>
+      <c r="YD13" s="20"/>
+      <c r="YE13" s="20"/>
+      <c r="YF13" s="20"/>
+      <c r="YG13" s="20"/>
+      <c r="YH13" s="20"/>
+      <c r="YI13" s="20"/>
+      <c r="YJ13" s="20"/>
+      <c r="YK13" s="20"/>
+      <c r="YL13" s="20"/>
+      <c r="YM13" s="20"/>
+      <c r="YN13" s="20"/>
+      <c r="YO13" s="20"/>
+      <c r="YP13" s="20"/>
+      <c r="YQ13" s="20"/>
+      <c r="YR13" s="20"/>
+      <c r="YS13" s="20"/>
+      <c r="YT13" s="20"/>
+      <c r="YU13" s="20"/>
+      <c r="YV13" s="20"/>
+      <c r="YW13" s="20"/>
+      <c r="YX13" s="20"/>
+      <c r="YY13" s="20"/>
+      <c r="YZ13" s="20"/>
+      <c r="ZA13" s="20"/>
+      <c r="ZB13" s="20"/>
+      <c r="ZC13" s="20"/>
+      <c r="ZD13" s="20"/>
+      <c r="ZE13" s="20"/>
+      <c r="ZF13" s="20"/>
+      <c r="ZG13" s="20"/>
+      <c r="ZH13" s="20"/>
+      <c r="ZI13" s="20"/>
+      <c r="ZJ13" s="20"/>
+      <c r="ZK13" s="20"/>
+      <c r="ZL13" s="20"/>
+      <c r="ZM13" s="20"/>
+      <c r="ZN13" s="20"/>
+      <c r="ZO13" s="20"/>
+      <c r="ZP13" s="20"/>
+      <c r="ZQ13" s="20"/>
+      <c r="ZR13" s="20"/>
+      <c r="ZS13" s="20"/>
+      <c r="ZT13" s="20"/>
+      <c r="ZU13" s="20"/>
+      <c r="ZV13" s="20"/>
+      <c r="ZW13" s="20"/>
+      <c r="ZX13" s="20"/>
+      <c r="ZY13" s="20"/>
+      <c r="ZZ13" s="20"/>
     </row>
     <row r="14" spans="1:702" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="7"/>
@@ -8524,7 +9225,7 @@
       <c r="ZZ14" s="8"/>
     </row>
     <row r="15" spans="1:702" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="9"/>
@@ -9230,7 +9931,7 @@
       <c r="ZZ15" s="10"/>
     </row>
     <row r="16" spans="1:702" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="9"/>
@@ -9936,7 +10637,7 @@
       <c r="ZZ16" s="10"/>
     </row>
     <row r="17" spans="1:702" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="11"/>

--- a/01.Main/Resource/Excel/FormWork.xlsx
+++ b/01.Main/Resource/Excel/FormWork.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ShDoc\Projects\VS\IsSoft\SEC\LedChecker\01.Main\Resource\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7A7EA-2896-4BFA-B86B-C5D30019D207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7190C-4F68-417E-BAD0-0F5A7EBEF4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{F5700C55-F471-4AE2-85E4-C63A8F17DB33}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t xml:space="preserve"> Item Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,11 +73,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Item Code(Normal)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Item Code(Sampling)</t>
+    <t xml:space="preserve"> Item Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2157,7 +2153,7 @@
     </row>
     <row r="3" spans="1:702" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
